--- a/res/thermodynamic_properties_o.xlsx
+++ b/res/thermodynamic_properties_o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential (Φ)</t>
+          <t>Gibbs Potential</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phi (Ф)</t>
         </is>
       </c>
     </row>
@@ -482,7 +487,10 @@
         <v>135.837</v>
       </c>
       <c r="F2" t="n">
-        <v>-1973800.7</v>
+        <v>-11376.7</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2581.57493</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +510,10 @@
         <v>151.5033700849804</v>
       </c>
       <c r="F3" t="n">
-        <v>-4236254.267301559</v>
+        <v>-25847.93742371152</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1363.132423435591</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +533,10 @@
         <v>160.012639014666</v>
       </c>
       <c r="F4" t="n">
-        <v>-6343882.305203329</v>
+        <v>-41164.81078534156</v>
+      </c>
+      <c r="G4" t="n">
+        <v>965.759744517205</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +556,10 @@
         <v>160.1431999211169</v>
       </c>
       <c r="F5" t="n">
-        <v>-6383264.819212424</v>
+        <v>-41460.95511709899</v>
+      </c>
+      <c r="G5" t="n">
+        <v>960.7912437074658</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +579,10 @@
         <v>166.1898117034159</v>
       </c>
       <c r="F6" t="n">
-        <v>-8503164.761608321</v>
+        <v>-57792.45284443941</v>
+      </c>
+      <c r="G6" t="n">
+        <v>761.4169234315061</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +602,10 @@
         <v>170.8569680016868</v>
       </c>
       <c r="F7" t="n">
-        <v>-10613544.27289581</v>
+        <v>-74653.58521194843</v>
+      </c>
+      <c r="G7" t="n">
+        <v>642.8516206263191</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +625,10 @@
         <v>174.6627118954972</v>
       </c>
       <c r="F8" t="n">
-        <v>-12720243.3819837</v>
+        <v>-91935.39838245189</v>
+      </c>
+      <c r="G8" t="n">
+        <v>564.5092269228285</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +648,10 @@
         <v>177.8780274600972</v>
       </c>
       <c r="F9" t="n">
-        <v>-14825759.24926215</v>
+        <v>-109566.591592028</v>
+      </c>
+      <c r="G9" t="n">
+        <v>509.0494908062828</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +671,10 @@
         <v>180.6629437582561</v>
       </c>
       <c r="F10" t="n">
-        <v>-16931341.7899273</v>
+        <v>-127496.7605716842</v>
+      </c>
+      <c r="G10" t="n">
+        <v>467.8284087215616</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +694,10 @@
         <v>183.1200099557335</v>
       </c>
       <c r="F11" t="n">
-        <v>-19037689.74730761</v>
+        <v>-145688.3442218128</v>
+      </c>
+      <c r="G11" t="n">
+        <v>436.0580272856383</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +717,10 @@
         <v>185.3189455798623</v>
       </c>
       <c r="F12" t="n">
-        <v>-21145227.97247167</v>
+        <v>-164112.2535529704</v>
+      </c>
+      <c r="G12" t="n">
+        <v>410.8740468609436</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +740,10 @@
         <v>187.3093305670246</v>
       </c>
       <c r="F13" t="n">
-        <v>-23254232.86359918</v>
+        <v>-182745.2880237516</v>
+      </c>
+      <c r="G13" t="n">
+        <v>390.4590845892287</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +763,10 @@
         <v>189.1276938701535</v>
       </c>
       <c r="F14" t="n">
-        <v>-25364894.75008437</v>
+        <v>-201568.508126744</v>
+      </c>
+      <c r="G14" t="n">
+        <v>373.6051028351889</v>
       </c>
     </row>
     <row r="15">
@@ -742,7 +786,10 @@
         <v>190.8017310670793</v>
       </c>
       <c r="F15" t="n">
-        <v>-27477351.28324252</v>
+        <v>-220566.1583543477</v>
+      </c>
+      <c r="G15" t="n">
+        <v>359.4782171248576</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +809,10 @@
         <v>192.3529434714506</v>
       </c>
       <c r="F16" t="n">
-        <v>-29591706.39055364</v>
+        <v>-239724.9255903372</v>
+      </c>
+      <c r="G16" t="n">
+        <v>347.4845402821911</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +832,10 @@
         <v>193.7983590669882</v>
       </c>
       <c r="F17" t="n">
-        <v>-31708041.56563737</v>
+        <v>-259033.4115734455</v>
+      </c>
+      <c r="G17" t="n">
+        <v>337.1898316309456</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +855,10 @@
         <v>195.15169402521</v>
       </c>
       <c r="F18" t="n">
-        <v>-33826422.86858249</v>
+        <v>-278481.7472821937</v>
+      </c>
+      <c r="G18" t="n">
+        <v>328.2693664493973</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +878,10 @@
         <v>196.4241598876125</v>
       </c>
       <c r="F19" t="n">
-        <v>-35946905.41661689</v>
+        <v>-298061.3044641333</v>
+      </c>
+      <c r="G19" t="n">
+        <v>320.4755557039933</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +901,10 @@
         <v>197.6250387654954</v>
       </c>
       <c r="F20" t="n">
-        <v>-38069536.35006309</v>
+        <v>-317764.4754976064</v>
+      </c>
+      <c r="G20" t="n">
+        <v>313.6163971685145</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +924,10 @@
         <v>198.7621022691102</v>
       </c>
       <c r="F21" t="n">
-        <v>-40194356.84136976</v>
+        <v>-337584.5024642508</v>
+      </c>
+      <c r="G21" t="n">
+        <v>307.5407573538967</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +947,10 @@
         <v>199.8419225190978</v>
       </c>
       <c r="F22" t="n">
-        <v>-42321403.4863309</v>
+        <v>-357515.3423969029</v>
+      </c>
+      <c r="G22" t="n">
+        <v>302.1280869471308</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +970,10 @@
         <v>200.870106984572</v>
       </c>
       <c r="F23" t="n">
-        <v>-44450709.28639154</v>
+        <v>-377551.5596058772</v>
+      </c>
+      <c r="G23" t="n">
+        <v>297.2810875908645</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +993,10 @@
         <v>201.8514785017588</v>
       </c>
       <c r="F24" t="n">
-        <v>-46582304.35428347</v>
+        <v>-397688.2386022898</v>
+      </c>
+      <c r="G24" t="n">
+        <v>292.920387994631</v>
       </c>
     </row>
     <row r="25">
@@ -942,7 +1016,10 @@
         <v>202.7902151516505</v>
       </c>
       <c r="F25" t="n">
-        <v>-48716216.42875991</v>
+        <v>-417920.912914885</v>
+      </c>
+      <c r="G25" t="n">
+        <v>288.9806157969352</v>
       </c>
     </row>
     <row r="26">
@@ -962,7 +1039,10 @@
         <v>203.6899602836766</v>
       </c>
       <c r="F26" t="n">
-        <v>-50852471.25527401</v>
+        <v>-438245.5063302306</v>
+      </c>
+      <c r="G26" t="n">
+        <v>285.4074566382833</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +1062,10 @@
         <v>204.5539100215088</v>
       </c>
       <c r="F27" t="n">
-        <v>-52991092.87101719</v>
+        <v>-458658.2839578086</v>
+      </c>
+      <c r="G27" t="n">
+        <v>282.155422986685</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1085,10 @@
         <v>205.3848835658992</v>
       </c>
       <c r="F28" t="n">
-        <v>-55132103.82073939</v>
+        <v>-479155.8111478698</v>
+      </c>
+      <c r="G28" t="n">
+        <v>279.1861408699024</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1108,10 @@
         <v>206.1853802007877</v>
       </c>
       <c r="F29" t="n">
-        <v>-57275525.32181751</v>
+        <v>-499734.9187468515</v>
+      </c>
+      <c r="G29" t="n">
+        <v>276.4670196811319</v>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1131,10 @@
         <v>206.9576259115085</v>
       </c>
       <c r="F30" t="n">
-        <v>-59421377.39166703</v>
+        <v>-520392.673513109</v>
+      </c>
+      <c r="G30" t="n">
+        <v>273.9702088693107</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1154,10 @@
         <v>207.7036118074156</v>
       </c>
       <c r="F31" t="n">
-        <v>-61569678.946908</v>
+        <v>-541126.3527688388</v>
+      </c>
+      <c r="G31" t="n">
+        <v>271.6717719473676</v>
       </c>
     </row>
     <row r="32">
@@ -1082,7 +1177,10 @@
         <v>208.4251260196499</v>
       </c>
       <c r="F32" t="n">
-        <v>-63720447.8811321</v>
+        <v>-561933.4225558764</v>
+      </c>
+      <c r="G32" t="n">
+        <v>269.5510268667911</v>
       </c>
     </row>
     <row r="33">
@@ -1102,7 +1200,10 @@
         <v>209.123780360366</v>
       </c>
       <c r="F33" t="n">
-        <v>-65873701.12630834</v>
+        <v>-582811.5187099435</v>
+      </c>
+      <c r="G33" t="n">
+        <v>267.5900150030762</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1223,10 @@
         <v>209.8010327432298</v>
       </c>
       <c r="F34" t="n">
-        <v>-68029454.7015736</v>
+        <v>-603758.43038154</v>
+      </c>
+      <c r="G34" t="n">
+        <v>265.7730704709822</v>
       </c>
     </row>
     <row r="35">
@@ -1142,7 +1246,10 @@
         <v>210.4582061491801</v>
       </c>
       <c r="F35" t="n">
-        <v>-70187723.75221922</v>
+        <v>-624772.0856203672</v>
+      </c>
+      <c r="G35" t="n">
+        <v>264.0864683714228</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1269,10 @@
         <v>211.0965047573006</v>
       </c>
       <c r="F36" t="n">
-        <v>-72348522.58100395</v>
+        <v>-645850.5387099931</v>
+      </c>
+      <c r="G36" t="n">
+        <v>262.5181356272142</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1292,10 @@
         <v>211.7170277346365</v>
       </c>
       <c r="F37" t="n">
-        <v>-74511864.67342032</v>
+        <v>-666991.9589948788</v>
+      </c>
+      <c r="G37" t="n">
+        <v>261.0574118162293</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1315,10 @@
         <v>212.3207810812408</v>
       </c>
       <c r="F38" t="n">
-        <v>-76677762.71816637</v>
+        <v>-688194.620986193</v>
+      </c>
+      <c r="G38" t="n">
+        <v>259.694850220913</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1338,10 @@
         <v>212.908687850608</v>
       </c>
       <c r="F39" t="n">
-        <v>-78846228.62379412</v>
+        <v>-709456.8955685026</v>
+      </c>
+      <c r="G39" t="n">
+        <v>258.422051437574</v>
       </c>
     </row>
     <row r="40">
@@ -1242,7 +1361,10 @@
         <v>213.4815970057915</v>
       </c>
       <c r="F40" t="n">
-        <v>-81017273.53229281</v>
+        <v>-730777.2421583367</v>
+      </c>
+      <c r="G40" t="n">
+        <v>257.2315235083876</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1384,10 @@
         <v>214.0402911241037</v>
       </c>
       <c r="F41" t="n">
-        <v>-83190907.83020246</v>
+        <v>-752154.2016891862</v>
+      </c>
+      <c r="G41" t="n">
+        <v>256.1165637834593</v>
       </c>
     </row>
     <row r="42">
@@ -1282,7 +1407,10 @@
         <v>214.5854931255157</v>
       </c>
       <c r="F42" t="n">
-        <v>-85367141.15772849</v>
+        <v>-773586.3903168365</v>
+      </c>
+      <c r="G42" t="n">
+        <v>255.0711586836628</v>
       </c>
     </row>
     <row r="43">
@@ -1302,7 +1430,10 @@
         <v>215.1178721695622</v>
       </c>
       <c r="F43" t="n">
-        <v>-87545982.41623142</v>
+        <v>-795072.4937548689</v>
+      </c>
+      <c r="G43" t="n">
+        <v>254.0898982860313</v>
       </c>
     </row>
     <row r="44">
@@ -1322,7 +1453,10 @@
         <v>215.6380488411043</v>
       </c>
       <c r="F44" t="n">
-        <v>-89727439.77439073</v>
+        <v>-816611.26216338</v>
+      </c>
+      <c r="G44" t="n">
+        <v>253.1679032429549</v>
       </c>
     </row>
     <row r="45">
@@ -1342,7 +1476,10 @@
         <v>216.1465997254523</v>
       </c>
       <c r="F45" t="n">
-        <v>-91911520.67328264</v>
+        <v>-838201.5055249818</v>
+      </c>
+      <c r="G45" t="n">
+        <v>252.3007620120203</v>
       </c>
     </row>
     <row r="46">
@@ -1362,7 +1499,10 @@
         <v>216.6440614571607</v>
       </c>
       <c r="F46" t="n">
-        <v>-94098231.83056557</v>
+        <v>-859842.0894513532</v>
+      </c>
+      <c r="G46" t="n">
+        <v>251.4844767432712</v>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1522,10 @@
         <v>217.1309343135293</v>
       </c>
       <c r="F47" t="n">
-        <v>-96287579.24392979</v>
+        <v>-881531.9313713631</v>
+      </c>
+      <c r="G47" t="n">
+        <v>250.7154164662941</v>
       </c>
     </row>
     <row r="48">
@@ -1402,7 +1545,10 @@
         <v>217.6076854129056</v>
       </c>
       <c r="F48" t="n">
-        <v>-98479568.1939393</v>
+        <v>-903269.9970583258</v>
+      </c>
+      <c r="G48" t="n">
+        <v>249.9902764570619</v>
       </c>
     </row>
     <row r="49">
@@ -1422,7 +1568,10 @@
         <v>218.0747515688251</v>
       </c>
       <c r="F49" t="n">
-        <v>-100674203.2463696</v>
+        <v>-925055.2974594821</v>
+      </c>
+      <c r="G49" t="n">
+        <v>249.3060428562911</v>
       </c>
     </row>
     <row r="50">
@@ -1442,7 +1591,10 @@
         <v>218.532541843502</v>
       </c>
       <c r="F50" t="n">
-        <v>-102871488.254127</v>
+        <v>-946886.8857955314</v>
+      </c>
+      <c r="G50" t="n">
+        <v>248.6599617667663</v>
       </c>
     </row>
     <row r="51">
@@ -1462,7 +1614,10 @@
         <v>218.9814398378912</v>
       </c>
       <c r="F51" t="n">
-        <v>-105071426.35882</v>
+        <v>-968763.8549020527</v>
+      </c>
+      <c r="G51" t="n">
+        <v>248.0495121840304</v>
       </c>
     </row>
     <row r="52">
@@ -1482,7 +1637,10 @@
         <v>219.4218057502799</v>
       </c>
       <c r="F52" t="n">
-        <v>-107274019.9920395</v>
+        <v>-990685.3347881113</v>
+      </c>
+      <c r="G52" t="n">
+        <v>247.4723822188296</v>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1660,10 @@
         <v>219.8539782309286</v>
       </c>
       <c r="F53" t="n">
-        <v>-109479270.8763975</v>
+        <v>-1012650.490390316</v>
+      </c>
+      <c r="G53" t="n">
+        <v>246.9264481552409</v>
       </c>
     </row>
     <row r="54">
@@ -1522,7 +1683,10 @@
         <v>220.2782760565413</v>
       </c>
       <c r="F54" t="n">
-        <v>-111687180.0263625</v>
+        <v>-1034658.519503146</v>
+      </c>
+      <c r="G54" t="n">
+        <v>246.4097559590684</v>
       </c>
     </row>
     <row r="55">
@@ -1542,7 +1706,10 @@
         <v>220.6949996451688</v>
       </c>
       <c r="F55" t="n">
-        <v>-113897747.7489253</v>
+        <v>-1056708.650868589</v>
+      </c>
+      <c r="G55" t="n">
+        <v>245.9205049096864</v>
       </c>
     </row>
     <row r="56">
@@ -1562,7 +1729,10 @@
         <v>221.1044324294528</v>
       </c>
       <c r="F56" t="n">
-        <v>-116110973.6441236</v>
+        <v>-1078800.142410041</v>
+      </c>
+      <c r="G56" t="n">
+        <v>245.4570330772836</v>
       </c>
     </row>
     <row r="57">
@@ -1582,7 +1752,10 @@
         <v>221.5068421038171</v>
       </c>
       <c r="F57" t="n">
-        <v>-118326856.6054462</v>
+        <v>-1100932.279597119</v>
+      </c>
+      <c r="G57" t="n">
+        <v>245.0178044082082</v>
       </c>
     </row>
     <row r="58">
@@ -1602,7 +1775,10 @@
         <v>221.9024817592391</v>
       </c>
       <c r="F58" t="n">
-        <v>-120545394.8201392</v>
+        <v>-1123104.373929451</v>
+      </c>
+      <c r="G58" t="n">
+        <v>244.601397215273</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1798,10 @@
         <v>222.2915909175506</v>
       </c>
       <c r="F59" t="n">
-        <v>-122766585.7694278</v>
+        <v>-1145315.761528841</v>
+      </c>
+      <c r="G59" t="n">
+        <v>244.206493898621</v>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +1821,10 @@
         <v>222.6743964757544</v>
       </c>
       <c r="F60" t="n">
-        <v>-124990426.2286685</v>
+        <v>-1167565.801830267</v>
+      </c>
+      <c r="G60" t="n">
+        <v>243.8318717469892</v>
       </c>
     </row>
     <row r="61">
@@ -1662,7 +1844,10 @@
         <v>223.0511135695929</v>
       </c>
       <c r="F61" t="n">
-        <v>-127216912.2674433</v>
+        <v>-1189853.876363216</v>
+      </c>
+      <c r="G61" t="n">
+        <v>243.4763946897488</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1867,10 @@
         <v>223.4219463645153</v>
       </c>
       <c r="F62" t="n">
-        <v>-129446039.2496051</v>
+        <v>-1212179.387615674</v>
+      </c>
+      <c r="G62" t="n">
+        <v>243.139005887517</v>
       </c>
     </row>
     <row r="63">
@@ -1702,7 +1890,10 @@
         <v>224.1467251623432</v>
       </c>
       <c r="F63" t="n">
-        <v>-133912193.9708514</v>
+        <v>-1256940.428731683</v>
+      </c>
+      <c r="G63" t="n">
+        <v>242.5146224942594</v>
       </c>
     </row>
     <row r="64">
@@ -1722,7 +1913,10 @@
         <v>224.8501729279626</v>
       </c>
       <c r="F64" t="n">
-        <v>-138388839.1880438</v>
+        <v>-1301844.525657656</v>
+      </c>
+      <c r="G64" t="n">
+        <v>241.9516139182147</v>
       </c>
     </row>
     <row r="65">
@@ -1742,7 +1936,10 @@
         <v>225.5335949682841</v>
       </c>
       <c r="F65" t="n">
-        <v>-142875912.4024627</v>
+        <v>-1346887.553115003</v>
+      </c>
+      <c r="G65" t="n">
+        <v>241.4437755971709</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1959,10 @@
         <v>226.1981779378024</v>
       </c>
       <c r="F66" t="n">
-        <v>-147373339.8177237</v>
+        <v>-1392065.63476931</v>
+      </c>
+      <c r="G66" t="n">
+        <v>240.9856695285444</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1982,10 @@
         <v>226.8450036031413</v>
       </c>
       <c r="F67" t="n">
-        <v>-151881036.3356785</v>
+        <v>-1437375.120911532</v>
+      </c>
+      <c r="G67" t="n">
+        <v>240.5725115724603</v>
       </c>
     </row>
     <row r="68">
@@ -1802,7 +2005,10 @@
         <v>227.4750606676733</v>
       </c>
       <c r="F68" t="n">
-        <v>-156398905.5518319</v>
+        <v>-1482812.568692223</v>
+      </c>
+      <c r="G68" t="n">
+        <v>240.2000778922372</v>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +2028,10 @@
         <v>228.0892549753374</v>
       </c>
       <c r="F69" t="n">
-        <v>-160926839.7504954</v>
+        <v>-1528374.724553819</v>
+      </c>
+      <c r="G69" t="n">
+        <v>239.8646268637237</v>
       </c>
     </row>
     <row r="70">
@@ -1842,7 +2051,10 @@
         <v>228.6884183531595</v>
       </c>
       <c r="F70" t="n">
-        <v>-165464719.899832</v>
+        <v>-1574058.508563664</v>
+      </c>
+      <c r="G70" t="n">
+        <v>239.5628335648347</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +2074,10 @@
         <v>229.2733163047653</v>
       </c>
       <c r="F71" t="n">
-        <v>-170012415.6469045</v>
+        <v>-1619861.000397442</v>
+      </c>
+      <c r="G71" t="n">
+        <v>239.2917345552131</v>
       </c>
     </row>
     <row r="72">
@@ -1882,7 +2097,10 @@
         <v>229.8446547295243</v>
       </c>
       <c r="F72" t="n">
-        <v>-174569785.3128019</v>
+        <v>-1665779.426761229</v>
+      </c>
+      <c r="G72" t="n">
+        <v>239.0486811187693</v>
       </c>
     </row>
     <row r="73">
@@ -1902,7 +2120,10 @@
         <v>230.4030858117615</v>
       </c>
       <c r="F73" t="n">
-        <v>-179136675.8878973</v>
+        <v>-1711811.150072203</v>
+      </c>
+      <c r="G73" t="n">
+        <v>238.8312995022706</v>
       </c>
     </row>
     <row r="74">
@@ -1922,7 +2143,10 @@
         <v>230.9492132000917</v>
       </c>
       <c r="F74" t="n">
-        <v>-183712923.027271</v>
+        <v>-1757953.65824438</v>
+      </c>
+      <c r="G74" t="n">
+        <v>238.6374569656837</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +2166,10 @@
         <v>231.4835965771491</v>
       </c>
       <c r="F75" t="n">
-        <v>-188298351.0463212</v>
+        <v>-1804204.555447725</v>
+      </c>
+      <c r="G75" t="n">
+        <v>238.4652326828615</v>
       </c>
     </row>
     <row r="76">
@@ -1962,7 +2189,10 @@
         <v>232.0067557038374</v>
       </c>
       <c r="F76" t="n">
-        <v>-192892772.9165716</v>
+        <v>-1850561.553727391</v>
+      </c>
+      <c r="G76" t="n">
+        <v>238.3128927080596</v>
       </c>
     </row>
     <row r="77">
@@ -1982,7 +2212,10 @@
         <v>232.5191740089845</v>
       </c>
       <c r="F77" t="n">
-        <v>-197495990.2616849</v>
+        <v>-1897022.465385257</v>
+      </c>
+      <c r="G77" t="n">
+        <v>238.1788683649513</v>
       </c>
     </row>
     <row r="78">
@@ -2002,7 +2235,10 @@
         <v>233.0213017843777</v>
       </c>
       <c r="F78" t="n">
-        <v>-202107793.3536782</v>
+        <v>-1943585.196039013</v>
+      </c>
+      <c r="G78" t="n">
+        <v>238.0617375281126</v>
       </c>
     </row>
     <row r="79">
@@ -2022,7 +2258,10 @@
         <v>233.5135590361184</v>
       </c>
       <c r="F79" t="n">
-        <v>-206727961.109341</v>
+        <v>-1990247.738285112</v>
+      </c>
+      <c r="G79" t="n">
+        <v>237.9602083583465</v>
       </c>
     </row>
     <row r="80">
@@ -2042,7 +2281,10 @@
         <v>233.9963380357288</v>
       </c>
       <c r="F80" t="n">
-        <v>-211356261.0868468</v>
+        <v>-2037008.165901293</v>
+      </c>
+      <c r="G80" t="n">
+        <v>237.873105127297</v>
       </c>
     </row>
     <row r="81">
@@ -2062,7 +2304,10 @@
         <v>234.4700056081678</v>
       </c>
       <c r="F81" t="n">
-        <v>-215992449.4825547</v>
+        <v>-2083864.628532449</v>
+      </c>
+      <c r="G81" t="n">
+        <v>237.7993558271451</v>
       </c>
     </row>
     <row r="82">
@@ -2082,7 +2327,10 @@
         <v>234.9349051886588</v>
       </c>
       <c r="F82" t="n">
-        <v>-220636271.1279894</v>
+        <v>-2130815.346810486</v>
+      </c>
+      <c r="G82" t="n">
+        <v>237.737981310541</v>
       </c>
     </row>
     <row r="83">
@@ -2102,7 +2350,10 @@
         <v>236.0608581274697</v>
       </c>
       <c r="F83" t="n">
-        <v>-232277443.583219</v>
+        <v>-2248593.422765552</v>
+      </c>
+      <c r="G83" t="n">
+        <v>237.6329883026646</v>
       </c>
     </row>
     <row r="84">
@@ -2122,7 +2373,10 @@
         <v>237.1384852556628</v>
       </c>
       <c r="F84" t="n">
-        <v>-243960151.3206422</v>
+        <v>-2366924.926829461</v>
+      </c>
+      <c r="G84" t="n">
+        <v>237.5878480380435</v>
       </c>
     </row>
     <row r="85">
@@ -2142,7 +2396,10 @@
         <v>238.1716608506385</v>
       </c>
       <c r="F85" t="n">
-        <v>-255679474.3664479</v>
+        <v>-2485786.816515677</v>
+      </c>
+      <c r="G85" t="n">
+        <v>237.5927503680356</v>
       </c>
     </row>
     <row r="86">
@@ -2162,7 +2419,10 @@
         <v>239.1637262795492</v>
       </c>
       <c r="F86" t="n">
-        <v>-267430048.1549526</v>
+        <v>-2605157.848914992</v>
+      </c>
+      <c r="G86" t="n">
+        <v>237.6396701707127</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2442,10 @@
         <v>240.1175770756419</v>
       </c>
       <c r="F87" t="n">
-        <v>-279206063.3515084</v>
+        <v>-2725018.336807461</v>
+      </c>
+      <c r="G87" t="n">
+        <v>237.7219908344658</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2465,10 @@
         <v>241.0357329249749</v>
       </c>
       <c r="F88" t="n">
-        <v>-291001265.6990768</v>
+        <v>-2845349.943853622</v>
+      </c>
+      <c r="G88" t="n">
+        <v>237.8342176361116</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2488,10 @@
         <v>241.920394436814</v>
       </c>
       <c r="F89" t="n">
-        <v>-302808955.8849355</v>
+        <v>-2966135.511336951</v>
+      </c>
+      <c r="G89" t="n">
+        <v>237.9717571498808</v>
       </c>
     </row>
     <row r="90">
@@ -2242,7 +2511,10 @@
         <v>242.7734895839878</v>
       </c>
       <c r="F90" t="n">
-        <v>-314621989.4245217</v>
+        <v>-3087358.910605484</v>
+      </c>
+      <c r="G90" t="n">
+        <v>238.1307457615652</v>
       </c>
     </row>
     <row r="91">
@@ -2262,7 +2534,10 @@
         <v>243.5967119898518</v>
       </c>
       <c r="F91" t="n">
-        <v>-326432776.5598813</v>
+        <v>-3209004.916616822</v>
+      </c>
+      <c r="G91" t="n">
+        <v>238.3079151179025</v>
       </c>
     </row>
     <row r="92">
@@ -2282,7 +2557,10 @@
         <v>244.3915527215235</v>
       </c>
       <c r="F92" t="n">
-        <v>-338233282.1705983</v>
+        <v>-3331059.098943077</v>
+      </c>
+      <c r="G92" t="n">
+        <v>238.5004856500799</v>
       </c>
     </row>
     <row r="93">
@@ -2302,7 +2580,10 @@
         <v>245.159326867813</v>
       </c>
       <c r="F93" t="n">
-        <v>-350015025.6954152</v>
+        <v>-3453507.727322138</v>
+      </c>
+      <c r="G93" t="n">
+        <v>238.7060816440651</v>
       </c>
     </row>
     <row r="94">
@@ -2322,7 +2603,10 @@
         <v>245.9011958959404</v>
       </c>
       <c r="F94" t="n">
-        <v>-361769081.0630366</v>
+        <v>-3576337.689406345</v>
+      </c>
+      <c r="G94" t="n">
+        <v>238.9226629975885</v>
       </c>
     </row>
     <row r="95">
@@ -2342,7 +2626,10 @@
         <v>246.6181865668584</v>
       </c>
       <c r="F95" t="n">
-        <v>-373486076.6308509</v>
+        <v>-3699536.418800665</v>
+      </c>
+      <c r="G95" t="n">
+        <v>239.1484700085523</v>
       </c>
     </row>
     <row r="96">
@@ -2362,7 +2649,10 @@
         <v>247.3112070259315</v>
       </c>
       <c r="F96" t="n">
-        <v>-385156195.1304948</v>
+        <v>-3823091.831829781</v>
+      </c>
+      <c r="G96" t="n">
+        <v>239.3819784201276</v>
       </c>
     </row>
     <row r="97">
@@ -2382,7 +2672,10 @@
         <v>247.9810605605008</v>
       </c>
       <c r="F97" t="n">
-        <v>-396769173.619355</v>
+        <v>-3946992.271749218</v>
+      </c>
+      <c r="G97" t="n">
+        <v>239.6218625977804</v>
       </c>
     </row>
     <row r="98">
@@ -2402,7 +2695,10 @@
         <v>248.6284574188801</v>
       </c>
       <c r="F98" t="n">
-        <v>-408314303.4372339</v>
+        <v>-4071226.459336149</v>
+      </c>
+      <c r="G98" t="n">
+        <v>239.8669651978859</v>
       </c>
     </row>
     <row r="99">
@@ -2422,7 +2718,10 @@
         <v>249.254025009618</v>
       </c>
       <c r="F99" t="n">
-        <v>-419780430.1675243</v>
+        <v>-4195783.448973087</v>
+      </c>
+      <c r="G99" t="n">
+        <v>240.1162720518585</v>
       </c>
     </row>
     <row r="100">
@@ -2442,7 +2741,10 @@
         <v>249.8583167403091</v>
       </c>
       <c r="F100" t="n">
-        <v>-431155953.6023306</v>
+        <v>-4320652.589481609</v>
+      </c>
+      <c r="G100" t="n">
+        <v>240.3688912659486</v>
       </c>
     </row>
     <row r="101">
@@ -2462,7 +2764,10 @@
         <v>250.4418197080727</v>
       </c>
       <c r="F101" t="n">
-        <v>-442428827.7110542</v>
+        <v>-4445823.489080672</v>
+      </c>
+      <c r="G101" t="n">
+        <v>240.6240357479716</v>
       </c>
     </row>
     <row r="102">
@@ -2482,7 +2787,10 @@
         <v>251.0049614162041</v>
       </c>
       <c r="F102" t="n">
-        <v>-453586560.6120332</v>
+        <v>-4571285.983940372</v>
+      </c>
+      <c r="G102" t="n">
+        <v>240.8810085347994</v>
       </c>
     </row>
   </sheetData>

--- a/res/thermodynamic_properties_o.xlsx
+++ b/res/thermodynamic_properties_o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Heat Capacity (Cp)</t>
+          <t>Experimental Cp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,22 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fitted Enthalpy (H)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Enthalpy (H)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy (S)</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential</t>
+          <t>Experimental Entropy (S)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phi (Ф)</t>
+          <t>Fitted Entropy (S)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Phi (Φ)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fitted Phi (Φ)</t>
         </is>
       </c>
     </row>
@@ -478,19 +488,25 @@
         <v>23.703</v>
       </c>
       <c r="C2" t="n">
-        <v>24.22157959527257</v>
+        <v>23.93990984855457</v>
       </c>
       <c r="D2" t="n">
         <v>2.207</v>
       </c>
       <c r="E2" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="F2" t="n">
         <v>135.837</v>
       </c>
-      <c r="F2" t="n">
-        <v>-11376.7</v>
-      </c>
       <c r="G2" t="n">
-        <v>2581.57493</v>
+        <v>135.837</v>
+      </c>
+      <c r="H2" t="n">
+        <v>113.767</v>
+      </c>
+      <c r="I2" t="n">
+        <v>117.1747395</v>
       </c>
     </row>
     <row r="3">
@@ -501,19 +517,25 @@
         <v>22.734</v>
       </c>
       <c r="C3" t="n">
-        <v>21.5795252681677</v>
+        <v>22.00373825464403</v>
       </c>
       <c r="D3" t="n">
-        <v>4.452736593284563</v>
+        <v>4.472916184404392</v>
       </c>
       <c r="E3" t="n">
-        <v>151.5033700849804</v>
+        <v>4.539</v>
       </c>
       <c r="F3" t="n">
-        <v>-25847.93742371152</v>
+        <v>152.043</v>
       </c>
       <c r="G3" t="n">
-        <v>1363.132423435591</v>
+        <v>151.61663538107</v>
+      </c>
+      <c r="H3" t="n">
+        <v>129.348</v>
+      </c>
+      <c r="I3" t="n">
+        <v>131.6907072079458</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +546,25 @@
         <v>21.911</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1089566346756</v>
+        <v>21.60295990708053</v>
       </c>
       <c r="D4" t="n">
-        <v>6.542957536881105</v>
+        <v>6.609561953812297</v>
       </c>
       <c r="E4" t="n">
-        <v>160.012639014666</v>
+        <v>6.728</v>
       </c>
       <c r="F4" t="n">
-        <v>-41164.81078534156</v>
+        <v>160.946</v>
       </c>
       <c r="G4" t="n">
-        <v>965.759744517205</v>
+        <v>160.3138620771335</v>
+      </c>
+      <c r="H4" t="n">
+        <v>138.391</v>
+      </c>
+      <c r="I4" t="n">
+        <v>140.0015292936015</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +575,25 @@
         <v>21.901</v>
       </c>
       <c r="C5" t="n">
-        <v>21.10437530160616</v>
+        <v>21.59846181903637</v>
       </c>
       <c r="D5" t="n">
-        <v>6.582004859236089</v>
+        <v>6.649523258817166</v>
       </c>
       <c r="E5" t="n">
-        <v>160.1431999211169</v>
+        <v>6.766</v>
       </c>
       <c r="F5" t="n">
-        <v>-41460.95511709899</v>
+        <v>161.084</v>
       </c>
       <c r="G5" t="n">
-        <v>960.7912437074658</v>
+        <v>160.4474788512414</v>
+      </c>
+      <c r="H5" t="n">
+        <v>138.531</v>
+      </c>
+      <c r="I5" t="n">
+        <v>140.1303955207729</v>
       </c>
     </row>
     <row r="6">
@@ -570,19 +604,25 @@
         <v>21.482</v>
       </c>
       <c r="C6" t="n">
-        <v>20.94963646539099</v>
+        <v>21.42263242819698</v>
       </c>
       <c r="D6" t="n">
-        <v>8.683471836926955</v>
+        <v>8.799678393617167</v>
       </c>
       <c r="E6" t="n">
-        <v>166.1898117034159</v>
+        <v>8.933</v>
       </c>
       <c r="F6" t="n">
-        <v>-57792.45284443941</v>
+        <v>167.32</v>
       </c>
       <c r="G6" t="n">
-        <v>761.4169234315061</v>
+        <v>166.6342940654009</v>
+      </c>
+      <c r="H6" t="n">
+        <v>144.988</v>
+      </c>
+      <c r="I6" t="n">
+        <v>146.1283122710126</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +633,25 @@
         <v>21.257</v>
       </c>
       <c r="C7" t="n">
-        <v>20.88781454217067</v>
+        <v>21.31584861658132</v>
       </c>
       <c r="D7" t="n">
-        <v>10.77489878889497</v>
+        <v>10.9362587214568</v>
       </c>
       <c r="E7" t="n">
-        <v>170.8569680016868</v>
+        <v>11.069</v>
       </c>
       <c r="F7" t="n">
-        <v>-74653.58521194843</v>
+        <v>172.087</v>
       </c>
       <c r="G7" t="n">
-        <v>642.8516206263191</v>
+        <v>171.4023769656626</v>
+      </c>
+      <c r="H7" t="n">
+        <v>149.95</v>
+      </c>
+      <c r="I7" t="n">
+        <v>150.7857982039283</v>
       </c>
     </row>
     <row r="8">
@@ -616,19 +662,25 @@
         <v>21.124</v>
       </c>
       <c r="C8" t="n">
-        <v>20.86276922471235</v>
+        <v>21.23847662956348</v>
       </c>
       <c r="D8" t="n">
-        <v>12.8622287548464</v>
+        <v>13.06380537550988</v>
       </c>
       <c r="E8" t="n">
-        <v>174.6627118954972</v>
+        <v>13.187</v>
       </c>
       <c r="F8" t="n">
-        <v>-91935.39838245189</v>
+        <v>175.95</v>
       </c>
       <c r="G8" t="n">
-        <v>564.5092269228285</v>
+        <v>175.2815671347479</v>
+      </c>
+      <c r="H8" t="n">
+        <v>153.972</v>
+      </c>
+      <c r="I8" t="n">
+        <v>154.5927777298704</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +691,25 @@
         <v>21.04</v>
       </c>
       <c r="C9" t="n">
-        <v>20.85525978107967</v>
+        <v>21.17688898946411</v>
       </c>
       <c r="D9" t="n">
-        <v>14.94802763004008</v>
+        <v>15.18447263779272</v>
       </c>
       <c r="E9" t="n">
-        <v>177.8780274600972</v>
+        <v>15.295</v>
       </c>
       <c r="F9" t="n">
-        <v>-109566.591592028</v>
+        <v>179.2</v>
       </c>
       <c r="G9" t="n">
-        <v>509.0494908062828</v>
+        <v>178.5507119922339</v>
+      </c>
+      <c r="H9" t="n">
+        <v>157.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>157.8113361544952</v>
       </c>
     </row>
     <row r="10">
@@ -662,19 +720,25 @@
         <v>20.984</v>
       </c>
       <c r="C10" t="n">
-        <v>20.85724498278613</v>
+        <v>21.12535146360855</v>
       </c>
       <c r="D10" t="n">
-        <v>17.0335944349207</v>
+        <v>17.2995152262444</v>
       </c>
       <c r="E10" t="n">
-        <v>180.6629437582561</v>
+        <v>17.396</v>
       </c>
       <c r="F10" t="n">
-        <v>-127496.7605716842</v>
+        <v>182.005</v>
       </c>
       <c r="G10" t="n">
-        <v>467.8284087215616</v>
+        <v>181.3750343614365</v>
+      </c>
+      <c r="H10" t="n">
+        <v>160.26</v>
+      </c>
+      <c r="I10" t="n">
+        <v>160.5984288141232</v>
       </c>
     </row>
     <row r="11">
@@ -685,19 +749,25 @@
         <v>20.944</v>
       </c>
       <c r="C11" t="n">
-        <v>20.86487957701593</v>
+        <v>21.08108708114625</v>
       </c>
       <c r="D11" t="n">
-        <v>19.11966473834745</v>
+        <v>19.40978405708691</v>
       </c>
       <c r="E11" t="n">
-        <v>183.1200099557335</v>
+        <v>19.492</v>
       </c>
       <c r="F11" t="n">
-        <v>-145688.3442218128</v>
+        <v>184.474</v>
       </c>
       <c r="G11" t="n">
-        <v>436.0580272856383</v>
+        <v>183.8606242131043</v>
+      </c>
+      <c r="H11" t="n">
+        <v>162.816</v>
+      </c>
+      <c r="I11" t="n">
+        <v>163.0555979466979</v>
       </c>
     </row>
     <row r="12">
@@ -708,19 +778,25 @@
         <v>20.915</v>
       </c>
       <c r="C12" t="n">
-        <v>20.87613492947801</v>
+        <v>21.04259919719474</v>
       </c>
       <c r="D12" t="n">
-        <v>21.20669202689181</v>
+        <v>21.51592454976911</v>
       </c>
       <c r="E12" t="n">
-        <v>185.3189455798623</v>
+        <v>21.585</v>
       </c>
       <c r="F12" t="n">
-        <v>-164112.2535529704</v>
+        <v>186.679</v>
       </c>
       <c r="G12" t="n">
-        <v>410.8740468609436</v>
+        <v>186.0797002980162</v>
+      </c>
+      <c r="H12" t="n">
+        <v>165.094</v>
+      </c>
+      <c r="I12" t="n">
+        <v>165.2523544184895</v>
       </c>
     </row>
     <row r="13">
@@ -731,19 +807,25 @@
         <v>20.893</v>
       </c>
       <c r="C13" t="n">
-        <v>20.88985702040295</v>
+        <v>21.00900758229873</v>
       </c>
       <c r="D13" t="n">
-        <v>23.29497559997546</v>
+        <v>23.61846676557772</v>
       </c>
       <c r="E13" t="n">
-        <v>187.3093305670246</v>
+        <v>23.676</v>
       </c>
       <c r="F13" t="n">
-        <v>-182745.2880237516</v>
+        <v>188.672</v>
       </c>
       <c r="G13" t="n">
-        <v>390.4590845892287</v>
+        <v>188.0836624935879</v>
+      </c>
+      <c r="H13" t="n">
+        <v>167.149</v>
+      </c>
+      <c r="I13" t="n">
+        <v>167.2383854996576</v>
       </c>
     </row>
     <row r="14">
@@ -754,19 +836,25 @@
         <v>20.877</v>
       </c>
       <c r="C14" t="n">
-        <v>20.90534873218336</v>
+        <v>20.97975402491425</v>
       </c>
       <c r="D14" t="n">
-        <v>25.38472451744018</v>
+        <v>25.71787047694279</v>
       </c>
       <c r="E14" t="n">
-        <v>189.1276938701535</v>
+        <v>25.764</v>
       </c>
       <c r="F14" t="n">
-        <v>-201568.508126744</v>
+        <v>190.489</v>
       </c>
       <c r="G14" t="n">
-        <v>373.6051028351889</v>
+        <v>189.910401029238</v>
+      </c>
+      <c r="H14" t="n">
+        <v>169.019</v>
+      </c>
+      <c r="I14" t="n">
+        <v>169.0504455974286</v>
       </c>
     </row>
     <row r="15">
@@ -777,19 +865,25 @@
         <v>20.864</v>
       </c>
       <c r="C15" t="n">
-        <v>20.92216763061378</v>
+        <v>20.95445981060614</v>
       </c>
       <c r="D15" t="n">
-        <v>27.47609203285532</v>
+        <v>27.81454943552518</v>
       </c>
       <c r="E15" t="n">
-        <v>190.8017310670793</v>
+        <v>27.851</v>
       </c>
       <c r="F15" t="n">
-        <v>-220566.1583543477</v>
+        <v>192.16</v>
       </c>
       <c r="G15" t="n">
-        <v>359.4782171248576</v>
+        <v>191.5886531451505</v>
+      </c>
+      <c r="H15" t="n">
+        <v>170.736</v>
+      </c>
+      <c r="I15" t="n">
+        <v>170.7164891890059</v>
       </c>
     </row>
     <row r="16">
@@ -800,19 +894,25 @@
         <v>20.853</v>
       </c>
       <c r="C16" t="n">
-        <v>20.94002095212166</v>
+        <v>20.93285171059592</v>
       </c>
       <c r="D16" t="n">
-        <v>29.56919526969361</v>
+        <v>29.90888523969525</v>
       </c>
       <c r="E16" t="n">
-        <v>192.3529434714506</v>
+        <v>29.937</v>
       </c>
       <c r="F16" t="n">
-        <v>-239724.9255903372</v>
+        <v>193.705</v>
       </c>
       <c r="G16" t="n">
-        <v>347.4845402821911</v>
+        <v>193.1407328305638</v>
+      </c>
+      <c r="H16" t="n">
+        <v>172.322</v>
+      </c>
+      <c r="I16" t="n">
+        <v>172.2582734668429</v>
       </c>
     </row>
     <row r="17">
@@ -823,19 +923,25 @@
         <v>20.845</v>
       </c>
       <c r="C17" t="n">
-        <v>20.95870784308623</v>
+        <v>20.91472127288483</v>
       </c>
       <c r="D17" t="n">
-        <v>31.66412702703689</v>
+        <v>32.00123565501998</v>
       </c>
       <c r="E17" t="n">
-        <v>193.7983590669882</v>
+        <v>32.022</v>
       </c>
       <c r="F17" t="n">
-        <v>-259033.4115734455</v>
+        <v>195.144</v>
       </c>
       <c r="G17" t="n">
-        <v>337.1898316309456</v>
+        <v>194.5843126568547</v>
+      </c>
+      <c r="H17" t="n">
+        <v>173.796</v>
+      </c>
+      <c r="I17" t="n">
+        <v>173.6930642894167</v>
       </c>
     </row>
     <row r="18">
@@ -846,19 +952,25 @@
         <v>20.838</v>
       </c>
       <c r="C18" t="n">
-        <v>20.97808602637486</v>
+        <v>20.89990132931977</v>
       </c>
       <c r="D18" t="n">
-        <v>33.76096315814215</v>
+        <v>34.09193981456742</v>
       </c>
       <c r="E18" t="n">
-        <v>195.15169402521</v>
+        <v>34.106</v>
       </c>
       <c r="F18" t="n">
-        <v>-278481.7472821937</v>
+        <v>196.489</v>
       </c>
       <c r="G18" t="n">
-        <v>328.2693664493973</v>
+        <v>195.933627348071</v>
+      </c>
+      <c r="H18" t="n">
+        <v>175.173</v>
+      </c>
+      <c r="I18" t="n">
+        <v>175.0347925222764</v>
       </c>
     </row>
     <row r="19">
@@ -869,19 +981,25 @@
         <v>20.833</v>
       </c>
       <c r="C19" t="n">
-        <v>20.99805176451358</v>
+        <v>20.88825187393122</v>
       </c>
       <c r="D19" t="n">
-        <v>35.85976734480795</v>
+        <v>36.18132158380968</v>
       </c>
       <c r="E19" t="n">
-        <v>196.4241598876125</v>
+        <v>36.19</v>
       </c>
       <c r="F19" t="n">
-        <v>-298061.3044641333</v>
+        <v>197.752</v>
       </c>
       <c r="G19" t="n">
-        <v>320.4755557039933</v>
+        <v>197.2003107130424</v>
+      </c>
+      <c r="H19" t="n">
+        <v>176.464</v>
+      </c>
+      <c r="I19" t="n">
+        <v>176.2948605189455</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +1010,25 @@
         <v>20.83</v>
       </c>
       <c r="C20" t="n">
-        <v>21.01852738594258</v>
+        <v>20.87965127162184</v>
       </c>
       <c r="D20" t="n">
-        <v>37.96059428028519</v>
+        <v>38.26969180389139</v>
       </c>
       <c r="E20" t="n">
-        <v>197.6250387654954</v>
+        <v>38.273</v>
       </c>
       <c r="F20" t="n">
-        <v>-317764.4754976064</v>
+        <v>198.943</v>
       </c>
       <c r="G20" t="n">
-        <v>313.6163971685145</v>
+        <v>198.3939923484536</v>
+      </c>
+      <c r="H20" t="n">
+        <v>177.68</v>
+      </c>
+      <c r="I20" t="n">
+        <v>177.4827185861241</v>
       </c>
     </row>
     <row r="21">
@@ -915,19 +1039,25 @@
         <v>20.827</v>
       </c>
       <c r="C21" t="n">
-        <v>21.03945327936453</v>
+        <v>20.87399061590119</v>
       </c>
       <c r="D21" t="n">
-        <v>40.06349184705845</v>
+        <v>40.35734982649783</v>
       </c>
       <c r="E21" t="n">
-        <v>198.7621022691102</v>
+        <v>40.356</v>
       </c>
       <c r="F21" t="n">
-        <v>-337584.5024642508</v>
+        <v>200.069</v>
       </c>
       <c r="G21" t="n">
-        <v>307.5407573538967</v>
+        <v>199.5227324106654</v>
+      </c>
+      <c r="H21" t="n">
+        <v>178.829</v>
+      </c>
+      <c r="I21" t="n">
+        <v>178.6062859462043</v>
       </c>
     </row>
     <row r="22">
@@ -938,19 +1068,25 @@
         <v>20.826</v>
       </c>
       <c r="C22" t="n">
-        <v>21.06078261645564</v>
+        <v>20.87117000953019</v>
       </c>
       <c r="D22" t="n">
-        <v>42.1685026412927</v>
+        <v>42.44458458826246</v>
       </c>
       <c r="E22" t="n">
-        <v>199.8419225190978</v>
+        <v>42.438</v>
       </c>
       <c r="F22" t="n">
-        <v>-357515.3423969029</v>
+        <v>201.137</v>
       </c>
       <c r="G22" t="n">
-        <v>302.1280869471308</v>
+        <v>200.593344500674</v>
+      </c>
+      <c r="H22" t="n">
+        <v>179.918</v>
+      </c>
+      <c r="I22" t="n">
+        <v>179.6722639789668</v>
       </c>
     </row>
     <row r="23">
@@ -961,19 +1097,25 @@
         <v>20.827</v>
       </c>
       <c r="C23" t="n">
-        <v>21.08247778978121</v>
+        <v>20.87109605401656</v>
       </c>
       <c r="D23" t="n">
-        <v>44.27566506172394</v>
+        <v>44.53167537820082</v>
       </c>
       <c r="E23" t="n">
-        <v>200.870106984572</v>
+        <v>44.521</v>
       </c>
       <c r="F23" t="n">
-        <v>-377551.5596058772</v>
+        <v>202.153</v>
       </c>
       <c r="G23" t="n">
-        <v>297.2810875908645</v>
+        <v>201.6116395386992</v>
+      </c>
+      <c r="H23" t="n">
+        <v>180.953</v>
+      </c>
+      <c r="I23" t="n">
+        <v>180.6863732228905</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +1126,25 @@
         <v>20.83</v>
       </c>
       <c r="C24" t="n">
-        <v>21.10450795717523</v>
+        <v>20.87368011892968</v>
       </c>
       <c r="D24" t="n">
-        <v>46.38501410157961</v>
+        <v>46.61889239584456</v>
       </c>
       <c r="E24" t="n">
-        <v>201.8514785017588</v>
+        <v>46.604</v>
       </c>
       <c r="F24" t="n">
-        <v>-397688.2386022898</v>
+        <v>203.122</v>
       </c>
       <c r="G24" t="n">
-        <v>292.920387994631</v>
+        <v>202.5826127561166</v>
+      </c>
+      <c r="H24" t="n">
+        <v>181.939</v>
+      </c>
+      <c r="I24" t="n">
+        <v>181.6535353779438</v>
       </c>
     </row>
     <row r="25">
@@ -1007,19 +1155,25 @@
         <v>20.835</v>
       </c>
       <c r="C25" t="n">
-        <v>21.12684731653741</v>
+        <v>20.87883712600297</v>
       </c>
       <c r="D25" t="n">
-        <v>48.49658193391112</v>
+        <v>48.70649716377489</v>
       </c>
       <c r="E25" t="n">
-        <v>202.7902151516505</v>
+        <v>48.687</v>
       </c>
       <c r="F25" t="n">
-        <v>-417920.912914885</v>
+        <v>204.048</v>
       </c>
       <c r="G25" t="n">
-        <v>288.9806157969352</v>
+        <v>203.5105890222245</v>
+      </c>
+      <c r="H25" t="n">
+        <v>182.88</v>
+      </c>
+      <c r="I25" t="n">
+        <v>182.5780149511195</v>
       </c>
     </row>
     <row r="26">
@@ -1030,19 +1184,25 @@
         <v>20.841</v>
       </c>
       <c r="C26" t="n">
-        <v>21.1494738729031</v>
+        <v>20.88648468018298</v>
       </c>
       <c r="D26" t="n">
-        <v>50.61039835059318</v>
+        <v>50.79474283702302</v>
       </c>
       <c r="E26" t="n">
-        <v>203.6899602836766</v>
+        <v>50.771</v>
       </c>
       <c r="F26" t="n">
-        <v>-438245.5063302306</v>
+        <v>204.935</v>
       </c>
       <c r="G26" t="n">
-        <v>285.4074566382833</v>
+        <v>204.3993371748857</v>
+      </c>
+      <c r="H26" t="n">
+        <v>183.78</v>
+      </c>
+      <c r="I26" t="n">
+        <v>183.4635308304943</v>
       </c>
     </row>
     <row r="27">
@@ -1053,19 +1213,25 @@
         <v>20.851</v>
       </c>
       <c r="C27" t="n">
-        <v>21.17236854356036</v>
+        <v>20.89654243892905</v>
       </c>
       <c r="D27" t="n">
-        <v>52.72649109596342</v>
+        <v>52.8838744382143</v>
       </c>
       <c r="E27" t="n">
-        <v>204.5539100215088</v>
+        <v>52.855</v>
       </c>
       <c r="F27" t="n">
-        <v>-458658.2839578086</v>
+        <v>205.786</v>
       </c>
       <c r="G27" t="n">
-        <v>282.155422986685</v>
+        <v>205.2521609662325</v>
+      </c>
+      <c r="H27" t="n">
+        <v>184.644</v>
+      </c>
+      <c r="I27" t="n">
+        <v>184.3133451389286</v>
       </c>
     </row>
     <row r="28">
@@ -1076,19 +1242,25 @@
         <v>20.862</v>
       </c>
       <c r="C28" t="n">
-        <v>21.19551449929146</v>
+        <v>20.90893164793</v>
       </c>
       <c r="D28" t="n">
-        <v>54.84488612346805</v>
+        <v>54.97412903844836</v>
       </c>
       <c r="E28" t="n">
-        <v>205.3848835658992</v>
+        <v>54.941</v>
       </c>
       <c r="F28" t="n">
-        <v>-479155.8111478698</v>
+        <v>206.604</v>
       </c>
       <c r="G28" t="n">
-        <v>279.1861408699024</v>
+        <v>206.0719721392664</v>
+      </c>
+      <c r="H28" t="n">
+        <v>185.473</v>
+      </c>
+      <c r="I28" t="n">
+        <v>185.1303347035421</v>
       </c>
     </row>
     <row r="29">
@@ -1099,19 +1271,25 @@
         <v>20.877</v>
       </c>
       <c r="C29" t="n">
-        <v>21.21889667312823</v>
+        <v>20.92357479488224</v>
       </c>
       <c r="D29" t="n">
-        <v>56.96560779527538</v>
+        <v>57.06573589798369</v>
       </c>
       <c r="E29" t="n">
-        <v>206.1853802007877</v>
+        <v>57.028</v>
       </c>
       <c r="F29" t="n">
-        <v>-499734.9187468515</v>
+        <v>207.392</v>
       </c>
       <c r="G29" t="n">
-        <v>276.4670196811319</v>
+        <v>206.8613496903284</v>
+      </c>
+      <c r="H29" t="n">
+        <v>186.27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>185.9170490697002</v>
       </c>
     </row>
     <row r="30">
@@ -1122,19 +1300,25 @@
         <v>20.894</v>
       </c>
       <c r="C30" t="n">
-        <v>21.24250138965073</v>
+        <v>20.9403953482248</v>
       </c>
       <c r="D30" t="n">
-        <v>59.08867903911481</v>
+        <v>59.15891657677553</v>
       </c>
       <c r="E30" t="n">
-        <v>206.9576259115085</v>
+        <v>59.116</v>
       </c>
       <c r="F30" t="n">
-        <v>-520392.673513109</v>
+        <v>208.151</v>
       </c>
       <c r="G30" t="n">
-        <v>273.9702088693107</v>
+        <v>207.6225883377195</v>
+      </c>
+      <c r="H30" t="n">
+        <v>187.038</v>
+      </c>
+      <c r="I30" t="n">
+        <v>186.6757579897715</v>
       </c>
     </row>
     <row r="31">
@@ -1145,19 +1329,25 @@
         <v>20.914</v>
       </c>
       <c r="C31" t="n">
-        <v>21.26631608217212</v>
+        <v>20.9593175578155</v>
       </c>
       <c r="D31" t="n">
-        <v>61.21412147266651</v>
+        <v>61.25388502214381</v>
       </c>
       <c r="E31" t="n">
-        <v>207.7036118074156</v>
+        <v>61.207</v>
       </c>
       <c r="F31" t="n">
-        <v>-541126.3527688388</v>
+        <v>208.885</v>
       </c>
       <c r="G31" t="n">
-        <v>271.6717719473676</v>
+        <v>208.3577384732528</v>
+      </c>
+      <c r="H31" t="n">
+        <v>187.779</v>
+      </c>
+      <c r="I31" t="n">
+        <v>187.4084905983436</v>
       </c>
     </row>
     <row r="32">
@@ -1168,19 +1358,25 @@
         <v>20.937</v>
       </c>
       <c r="C32" t="n">
-        <v>21.2903290747793</v>
+        <v>20.98026630131634</v>
       </c>
       <c r="D32" t="n">
-        <v>63.34195550307315</v>
+        <v>63.35084763890755</v>
       </c>
       <c r="E32" t="n">
-        <v>208.4251260196499</v>
+        <v>63.299</v>
       </c>
       <c r="F32" t="n">
-        <v>-561933.4225558764</v>
+        <v>209.594</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5510268667911</v>
+        <v>209.0686393321368</v>
+      </c>
+      <c r="H32" t="n">
+        <v>188.494</v>
+      </c>
+      <c r="I32" t="n">
+        <v>188.117067961627</v>
       </c>
     </row>
     <row r="33">
@@ -1191,19 +1387,25 @@
         <v>20.963</v>
       </c>
       <c r="C33" t="n">
-        <v>21.31452941277211</v>
+        <v>21.00316696468962</v>
       </c>
       <c r="D33" t="n">
-        <v>65.47220040719121</v>
+        <v>65.45000334594481</v>
       </c>
       <c r="E33" t="n">
-        <v>209.123780360366</v>
+        <v>65.39400000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-582811.5187099435</v>
+        <v>210.281</v>
       </c>
       <c r="G33" t="n">
-        <v>267.5900150030762</v>
+        <v>209.7569467175196</v>
+      </c>
+      <c r="H33" t="n">
+        <v>189.186</v>
+      </c>
+      <c r="I33" t="n">
+        <v>188.803130302055</v>
       </c>
     </row>
     <row r="34">
@@ -1214,19 +1416,25 @@
         <v>20.991</v>
       </c>
       <c r="C34" t="n">
-        <v>21.33890672959758</v>
+        <v>21.02794534841506</v>
       </c>
       <c r="D34" t="n">
-        <v>67.60487439679527</v>
+        <v>67.5515436221477</v>
       </c>
       <c r="E34" t="n">
-        <v>209.8010327432298</v>
+        <v>67.492</v>
       </c>
       <c r="F34" t="n">
-        <v>-603758.43038154</v>
+        <v>210.947</v>
       </c>
       <c r="G34" t="n">
-        <v>265.7730704709822</v>
+        <v>210.4241563185233</v>
+      </c>
+      <c r="H34" t="n">
+        <v>189.856</v>
+      </c>
+      <c r="I34" t="n">
+        <v>189.4681599104493</v>
       </c>
     </row>
     <row r="35">
@@ -1237,19 +1445,25 @@
         <v>21.022</v>
       </c>
       <c r="C35" t="n">
-        <v>21.36345114157031</v>
+        <v>21.05452759329035</v>
       </c>
       <c r="D35" t="n">
-        <v>69.73999467192692</v>
+        <v>69.65565254402193</v>
       </c>
       <c r="E35" t="n">
-        <v>210.4582061491801</v>
+        <v>69.593</v>
       </c>
       <c r="F35" t="n">
-        <v>-624772.0856203672</v>
+        <v>211.593</v>
       </c>
       <c r="G35" t="n">
-        <v>264.0864683714228</v>
+        <v>211.071623436469</v>
+      </c>
+      <c r="H35" t="n">
+        <v>190.505</v>
+      </c>
+      <c r="I35" t="n">
+        <v>190.1135005404247</v>
       </c>
     </row>
     <row r="36">
@@ -1260,19 +1474,25 @@
         <v>21.056</v>
       </c>
       <c r="C36" t="n">
-        <v>21.38815316394067</v>
+        <v>21.08284012127724</v>
       </c>
       <c r="D36" t="n">
-        <v>71.87757746482913</v>
+        <v>71.76250681665105</v>
       </c>
       <c r="E36" t="n">
-        <v>211.0965047573006</v>
+        <v>71.697</v>
       </c>
       <c r="F36" t="n">
-        <v>-645850.5387099931</v>
+        <v>212.221</v>
       </c>
       <c r="G36" t="n">
-        <v>262.5181356272142</v>
+        <v>211.7005797634844</v>
+      </c>
+      <c r="H36" t="n">
+        <v>191.134</v>
+      </c>
+      <c r="I36" t="n">
+        <v>190.7403739139309</v>
       </c>
     </row>
     <row r="37">
@@ -1283,19 +1503,25 @@
         <v>21.092</v>
       </c>
       <c r="C37" t="n">
-        <v>21.41300364350318</v>
+        <v>21.1128095880049</v>
       </c>
       <c r="D37" t="n">
-        <v>74.01763807634909</v>
+        <v>73.87227579935271</v>
       </c>
       <c r="E37" t="n">
-        <v>211.7170277346365</v>
+        <v>73.804</v>
       </c>
       <c r="F37" t="n">
-        <v>-666991.9589948788</v>
+        <v>212.832</v>
       </c>
       <c r="G37" t="n">
-        <v>261.0574118162293</v>
+        <v>212.3121477267839</v>
+      </c>
+      <c r="H37" t="n">
+        <v>191.746</v>
+      </c>
+      <c r="I37" t="n">
+        <v>191.3498938394311</v>
       </c>
     </row>
     <row r="38">
@@ -1306,19 +1532,25 @@
         <v>21.13</v>
       </c>
       <c r="C38" t="n">
-        <v>21.43799370412216</v>
+        <v>21.14436284437722</v>
       </c>
       <c r="D38" t="n">
-        <v>76.1601909062739</v>
+        <v>75.98512152705867</v>
       </c>
       <c r="E38" t="n">
-        <v>212.3207810812408</v>
+        <v>75.91500000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>-688194.620986193</v>
+        <v>213.427</v>
       </c>
       <c r="G38" t="n">
-        <v>259.694850220913</v>
+        <v>212.9073528105577</v>
+      </c>
+      <c r="H38" t="n">
+        <v>192.34</v>
+      </c>
+      <c r="I38" t="n">
+        <v>191.943078345493</v>
       </c>
     </row>
     <row r="39">
@@ -1329,19 +1561,25 @@
         <v>21.17</v>
       </c>
       <c r="C39" t="n">
-        <v>21.46311470242054</v>
+        <v>21.17742690534292</v>
       </c>
       <c r="D39" t="n">
-        <v>78.30524947874687</v>
+        <v>78.10119872822796</v>
       </c>
       <c r="E39" t="n">
-        <v>212.908687850608</v>
+        <v>78.03</v>
       </c>
       <c r="F39" t="n">
-        <v>-709456.8955685026</v>
+        <v>214.007</v>
       </c>
       <c r="G39" t="n">
-        <v>258.422051437574</v>
+        <v>213.4871341882979</v>
+      </c>
+      <c r="H39" t="n">
+        <v>192.917</v>
+      </c>
+      <c r="I39" t="n">
+        <v>192.5208601554463</v>
       </c>
     </row>
     <row r="40">
@@ -1352,19 +1590,25 @@
         <v>21.213</v>
       </c>
       <c r="C40" t="n">
-        <v>21.48835819152131</v>
+        <v>21.21192892434107</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4528264636708</v>
+        <v>80.22065483993163</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4815970057915</v>
+        <v>80.149</v>
       </c>
       <c r="F40" t="n">
-        <v>-730777.2421583367</v>
+        <v>214.572</v>
       </c>
       <c r="G40" t="n">
-        <v>257.2315235083876</v>
+        <v>214.0523539361847</v>
+      </c>
+      <c r="H40" t="n">
+        <v>193.48</v>
+      </c>
+      <c r="I40" t="n">
+        <v>193.0840957680708</v>
       </c>
     </row>
     <row r="41">
@@ -1375,19 +1619,25 @@
         <v>21.257</v>
       </c>
       <c r="C41" t="n">
-        <v>21.51371589121151</v>
+        <v>21.24779617227312</v>
       </c>
       <c r="D41" t="n">
-        <v>82.60293369481845</v>
+        <v>82.34363002061652</v>
       </c>
       <c r="E41" t="n">
-        <v>214.0402911241037</v>
+        <v>82.273</v>
       </c>
       <c r="F41" t="n">
-        <v>-752154.2016891862</v>
+        <v>215.123</v>
       </c>
       <c r="G41" t="n">
-        <v>256.1165637834593</v>
+        <v>214.603805048894</v>
+      </c>
+      <c r="H41" t="n">
+        <v>194.028</v>
+      </c>
+      <c r="I41" t="n">
+        <v>193.6335733611806</v>
       </c>
     </row>
     <row r="42">
@@ -1398,19 +1648,25 @@
         <v>21.302</v>
       </c>
       <c r="C42" t="n">
-        <v>21.53917966326075</v>
+        <v>21.28495602010772</v>
       </c>
       <c r="D42" t="n">
-        <v>84.75558218522642</v>
+        <v>84.47025716095484</v>
       </c>
       <c r="E42" t="n">
-        <v>214.5854931255157</v>
+        <v>84.401</v>
       </c>
       <c r="F42" t="n">
-        <v>-773586.3903168365</v>
+        <v>215.662</v>
       </c>
       <c r="G42" t="n">
-        <v>255.0711586836628</v>
+        <v>215.1422184399114</v>
+      </c>
+      <c r="H42" t="n">
+        <v>194.562</v>
+      </c>
+      <c r="I42" t="n">
+        <v>194.1700196965973</v>
       </c>
     </row>
     <row r="43">
@@ -1421,19 +1677,25 @@
         <v>21.349</v>
       </c>
       <c r="C43" t="n">
-        <v>21.56474149090108</v>
+        <v>21.32333592441848</v>
       </c>
       <c r="D43" t="n">
-        <v>86.91078214033622</v>
+        <v>86.60066189310582</v>
       </c>
       <c r="E43" t="n">
-        <v>215.1178721695622</v>
+        <v>86.533</v>
       </c>
       <c r="F43" t="n">
-        <v>-795072.4937548689</v>
+        <v>216.189</v>
       </c>
       <c r="G43" t="n">
-        <v>254.0898982860313</v>
+        <v>215.668269076937</v>
+      </c>
+      <c r="H43" t="n">
+        <v>195.083</v>
+      </c>
+      <c r="I43" t="n">
+        <v>194.6941061742044</v>
       </c>
     </row>
     <row r="44">
@@ -1444,19 +1706,25 @@
         <v>21.397</v>
       </c>
       <c r="C44" t="n">
-        <v>21.59039346168537</v>
+        <v>21.36286341530276</v>
       </c>
       <c r="D44" t="n">
-        <v>89.06854296925808</v>
+        <v>88.73496259865412</v>
       </c>
       <c r="E44" t="n">
-        <v>215.6380488411043</v>
+        <v>88.67</v>
       </c>
       <c r="F44" t="n">
-        <v>-816611.26216338</v>
+        <v>216.704</v>
       </c>
       <c r="G44" t="n">
-        <v>253.1679032429549</v>
+        <v>216.1825813775373</v>
+      </c>
+      <c r="H44" t="n">
+        <v>195.592</v>
+      </c>
+      <c r="I44" t="n">
+        <v>195.206454157903</v>
       </c>
     </row>
     <row r="45">
@@ -1467,19 +1735,25 @@
         <v>21.445</v>
       </c>
       <c r="C45" t="n">
-        <v>21.61612775310295</v>
+        <v>21.40346608624385</v>
       </c>
       <c r="D45" t="n">
-        <v>91.2288732944632</v>
+        <v>90.87327041544084</v>
       </c>
       <c r="E45" t="n">
-        <v>216.1465997254523</v>
+        <v>90.812</v>
       </c>
       <c r="F45" t="n">
-        <v>-838201.5055249818</v>
+        <v>217.208</v>
       </c>
       <c r="G45" t="n">
-        <v>252.3007620120203</v>
+        <v>216.6857339695657</v>
+      </c>
+      <c r="H45" t="n">
+        <v>196.088</v>
+      </c>
+      <c r="I45" t="n">
+        <v>195.7076396760867</v>
       </c>
     </row>
     <row r="46">
@@ -1490,19 +1764,25 @@
         <v>21.495</v>
       </c>
       <c r="C46" t="n">
-        <v>21.64193662045723</v>
+        <v>21.44507158556721</v>
       </c>
       <c r="D46" t="n">
-        <v>93.39178096015407</v>
+        <v>93.01568924346289</v>
       </c>
       <c r="E46" t="n">
-        <v>216.6440614571607</v>
+        <v>92.959</v>
       </c>
       <c r="F46" t="n">
-        <v>-859842.0894513532</v>
+        <v>217.701</v>
       </c>
       <c r="G46" t="n">
-        <v>251.4844767432712</v>
+        <v>217.1782639040412</v>
+      </c>
+      <c r="H46" t="n">
+        <v>196.574</v>
+      </c>
+      <c r="I46" t="n">
+        <v>196.1981975827708</v>
       </c>
     </row>
     <row r="47">
@@ -1513,19 +1793,25 @@
         <v>21.545</v>
       </c>
       <c r="C47" t="n">
-        <v>21.66781238660756</v>
+        <v>21.48760760921077</v>
       </c>
       <c r="D47" t="n">
-        <v>95.55727303951892</v>
+        <v>95.16231574998567</v>
       </c>
       <c r="E47" t="n">
-        <v>217.1309343135293</v>
+        <v>95.111</v>
       </c>
       <c r="F47" t="n">
-        <v>-881531.9313713631</v>
+        <v>218.185</v>
       </c>
       <c r="G47" t="n">
-        <v>250.7154164662941</v>
+        <v>217.6606703943654</v>
+      </c>
+      <c r="H47" t="n">
+        <v>197.049</v>
+      </c>
+      <c r="I47" t="n">
+        <v>196.6786252519768</v>
       </c>
     </row>
     <row r="48">
@@ -1536,19 +1822,25 @@
         <v>21.596</v>
       </c>
       <c r="C48" t="n">
-        <v>21.69374743325485</v>
+        <v>21.53100189458312</v>
       </c>
       <c r="D48" t="n">
-        <v>97.72535584103993</v>
+        <v>97.31323937398918</v>
       </c>
       <c r="E48" t="n">
-        <v>217.6076854129056</v>
+        <v>97.268</v>
       </c>
       <c r="F48" t="n">
-        <v>-903269.9970583258</v>
+        <v>218.659</v>
       </c>
       <c r="G48" t="n">
-        <v>249.9902764570619</v>
+        <v>218.1334181443854</v>
+      </c>
+      <c r="H48" t="n">
+        <v>197.514</v>
+      </c>
+      <c r="I48" t="n">
+        <v>197.1493858668261</v>
       </c>
     </row>
     <row r="49">
@@ -1559,19 +1851,25 @@
         <v>21.647</v>
       </c>
       <c r="C49" t="n">
-        <v>21.71973419351105</v>
+        <v>21.57518221532656</v>
       </c>
       <c r="D49" t="n">
-        <v>99.89603491399609</v>
+        <v>99.46854233004613</v>
       </c>
       <c r="E49" t="n">
-        <v>218.0747515688251</v>
+        <v>99.431</v>
       </c>
       <c r="F49" t="n">
-        <v>-925055.2974594821</v>
+        <v>219.124</v>
       </c>
       <c r="G49" t="n">
-        <v>249.3060428562911</v>
+        <v>218.5969403183907</v>
+      </c>
+      <c r="H49" t="n">
+        <v>197.968</v>
+      </c>
+      <c r="I49" t="n">
+        <v>197.6109113555536</v>
       </c>
     </row>
     <row r="50">
@@ -1582,19 +1880,25 @@
         <v>21.697</v>
       </c>
       <c r="C50" t="n">
-        <v>21.74576514554064</v>
+        <v>21.62007637683579</v>
       </c>
       <c r="D50" t="n">
-        <v>102.0693150532782</v>
+        <v>101.6282996117157</v>
       </c>
       <c r="E50" t="n">
-        <v>218.532541843502</v>
+        <v>101.598</v>
       </c>
       <c r="F50" t="n">
-        <v>-946886.8857955314</v>
+        <v>219.58</v>
       </c>
       <c r="G50" t="n">
-        <v>248.6599617667663</v>
+        <v>219.0516411983027</v>
+      </c>
+      <c r="H50" t="n">
+        <v>198.414</v>
+      </c>
+      <c r="I50" t="n">
+        <v>198.0636050189729</v>
       </c>
     </row>
     <row r="51">
@@ -1605,19 +1909,25 @@
         <v>21.748</v>
       </c>
       <c r="C51" t="n">
-        <v>21.77183280710115</v>
+        <v>21.6656122124101</v>
       </c>
       <c r="D51" t="n">
-        <v>104.2452003036143</v>
+        <v>103.7925789945215</v>
       </c>
       <c r="E51" t="n">
-        <v>218.9814398378912</v>
+        <v>103.77</v>
       </c>
       <c r="F51" t="n">
-        <v>-968763.8549020527</v>
+        <v>220.028</v>
       </c>
       <c r="G51" t="n">
-        <v>248.0495121840304</v>
+        <v>219.4978985667809</v>
+      </c>
+      <c r="H51" t="n">
+        <v>198.851</v>
+      </c>
+      <c r="I51" t="n">
+        <v>198.5078438875061</v>
       </c>
     </row>
     <row r="52">
@@ -1628,19 +1938,25 @@
         <v>21.799</v>
       </c>
       <c r="C52" t="n">
-        <v>21.79792973084017</v>
+        <v>21.71171757993875</v>
       </c>
       <c r="D52" t="n">
-        <v>106.4236939632881</v>
+        <v>105.9614410385721</v>
       </c>
       <c r="E52" t="n">
-        <v>219.4218057502799</v>
+        <v>105.947</v>
       </c>
       <c r="F52" t="n">
-        <v>-990685.3347881113</v>
+        <v>220.468</v>
       </c>
       <c r="G52" t="n">
-        <v>247.4723822188296</v>
+        <v>219.9360658494868</v>
+      </c>
+      <c r="H52" t="n">
+        <v>199.279</v>
+      </c>
+      <c r="I52" t="n">
+        <v>198.9439808405077</v>
       </c>
     </row>
     <row r="53">
@@ -1651,19 +1967,25 @@
         <v>21.849</v>
       </c>
       <c r="C53" t="n">
-        <v>21.82404850023143</v>
+        <v>21.75832035903684</v>
       </c>
       <c r="D53" t="n">
-        <v>108.6047985874198</v>
+        <v>108.1349390908736</v>
       </c>
       <c r="E53" t="n">
-        <v>219.8539782309286</v>
+        <v>108.13</v>
       </c>
       <c r="F53" t="n">
-        <v>-1012650.490390316</v>
+        <v>220.9</v>
       </c>
       <c r="G53" t="n">
-        <v>246.9264481552409</v>
+        <v>220.3664740451376</v>
+      </c>
+      <c r="H53" t="n">
+        <v>199.698</v>
+      </c>
+      <c r="I53" t="n">
+        <v>199.372346516083</v>
       </c>
     </row>
     <row r="54">
@@ -1674,19 +1996,25 @@
         <v>21.899</v>
       </c>
       <c r="C54" t="n">
-        <v>21.8501817260526</v>
+        <v>21.80534844856287</v>
       </c>
       <c r="D54" t="n">
-        <v>110.7885159908685</v>
+        <v>110.3131192873748</v>
       </c>
       <c r="E54" t="n">
-        <v>220.2782760565413</v>
+        <v>110.317</v>
       </c>
       <c r="F54" t="n">
-        <v>-1034658.519503146</v>
+        <v>221.325</v>
       </c>
       <c r="G54" t="n">
-        <v>246.4097559590684</v>
+        <v>220.789433468087</v>
+      </c>
+      <c r="H54" t="n">
+        <v>200.11</v>
+      </c>
+      <c r="I54" t="n">
+        <v>199.7932510357746</v>
       </c>
     </row>
     <row r="55">
@@ -1697,19 +2025,25 @@
         <v>21.949</v>
       </c>
       <c r="C55" t="n">
-        <v>21.87632204332384</v>
+        <v>21.85272976446111</v>
       </c>
       <c r="D55" t="n">
-        <v>112.974847250806</v>
+        <v>112.4960205547817</v>
       </c>
       <c r="E55" t="n">
-        <v>220.6949996451688</v>
+        <v>112.51</v>
       </c>
       <c r="F55" t="n">
-        <v>-1056708.650868589</v>
+        <v>221.743</v>
       </c>
       <c r="G55" t="n">
-        <v>245.9205049096864</v>
+        <v>221.2052353248705</v>
+      </c>
+      <c r="H55" t="n">
+        <v>200.514</v>
+      </c>
+      <c r="I55" t="n">
+        <v>200.2069855652417</v>
       </c>
     </row>
     <row r="56">
@@ -1720,19 +2054,25 @@
         <v>21.997</v>
       </c>
       <c r="C56" t="n">
-        <v>21.90246210863945</v>
+        <v>21.90039223788094</v>
       </c>
       <c r="D56" t="n">
-        <v>115.1637927090045</v>
+        <v>114.6836746121694</v>
       </c>
       <c r="E56" t="n">
-        <v>221.1044324294528</v>
+        <v>114.707</v>
       </c>
       <c r="F56" t="n">
-        <v>-1078800.142410041</v>
+        <v>222.153</v>
       </c>
       <c r="G56" t="n">
-        <v>245.4570330772836</v>
+        <v>221.614153143345</v>
+      </c>
+      <c r="H56" t="n">
+        <v>200.911</v>
+      </c>
+      <c r="I56" t="n">
+        <v>200.6138237293026</v>
       </c>
     </row>
     <row r="57">
@@ -1743,19 +2083,25 @@
         <v>22.045</v>
       </c>
       <c r="C57" t="n">
-        <v>21.92859459783601</v>
+        <v>21.94826381353343</v>
       </c>
       <c r="D57" t="n">
-        <v>117.3553519738752</v>
+        <v>116.8761059724189</v>
       </c>
       <c r="E57" t="n">
-        <v>221.5068421038171</v>
+        <v>116.909</v>
       </c>
       <c r="F57" t="n">
-        <v>-1100932.279597119</v>
+        <v>222.557</v>
       </c>
       <c r="G57" t="n">
-        <v>245.0178044082082</v>
+        <v>222.0164440706587</v>
+      </c>
+      <c r="H57" t="n">
+        <v>201.301</v>
+      </c>
+      <c r="I57" t="n">
+        <v>201.014022897347</v>
       </c>
     </row>
     <row r="58">
@@ -1766,19 +2112,25 @@
         <v>22.093</v>
       </c>
       <c r="C58" t="n">
-        <v>21.95471220394931</v>
+        <v>21.9962724482514</v>
       </c>
       <c r="D58" t="n">
-        <v>119.5495239222875</v>
+        <v>119.0733319434996</v>
       </c>
       <c r="E58" t="n">
-        <v>221.9024817592391</v>
+        <v>119.116</v>
       </c>
       <c r="F58" t="n">
-        <v>-1123104.373929451</v>
+        <v>222.955</v>
       </c>
       <c r="G58" t="n">
-        <v>244.601397215273</v>
+        <v>222.4123500542406</v>
+      </c>
+      <c r="H58" t="n">
+        <v>201.684</v>
+      </c>
+      <c r="I58" t="n">
+        <v>201.4078253531167</v>
       </c>
     </row>
     <row r="59">
@@ -1789,19 +2141,25 @@
         <v>22.139</v>
       </c>
       <c r="C59" t="n">
-        <v>21.98080763542005</v>
+        <v>22.0443461097248</v>
       </c>
       <c r="D59" t="n">
-        <v>121.7463067011978</v>
+        <v>121.2753626296169</v>
       </c>
       <c r="E59" t="n">
-        <v>222.2915909175506</v>
+        <v>121.328</v>
       </c>
       <c r="F59" t="n">
-        <v>-1145315.761528841</v>
+        <v>223.346</v>
       </c>
       <c r="G59" t="n">
-        <v>244.206493898621</v>
+        <v>222.8020989182349</v>
+      </c>
+      <c r="H59" t="n">
+        <v>202.061</v>
+      </c>
+      <c r="I59" t="n">
+        <v>201.7954593611136</v>
       </c>
     </row>
     <row r="60">
@@ -1812,19 +2170,25 @@
         <v>22.184</v>
       </c>
       <c r="C60" t="n">
-        <v>22.00687361451405</v>
+        <v>22.09241277538737</v>
       </c>
       <c r="D60" t="n">
-        <v>123.9456977291092</v>
+        <v>123.4822009322411</v>
       </c>
       <c r="E60" t="n">
-        <v>222.6743964757544</v>
+        <v>123.544</v>
       </c>
       <c r="F60" t="n">
-        <v>-1167565.801830267</v>
+        <v>223.732</v>
       </c>
       <c r="G60" t="n">
-        <v>243.8318717469892</v>
+        <v>223.1859053462982</v>
+      </c>
+      <c r="H60" t="n">
+        <v>202.431</v>
+      </c>
+      <c r="I60" t="n">
+        <v>202.1771401404092</v>
       </c>
     </row>
     <row r="61">
@@ -1835,19 +2199,25 @@
         <v>22.229</v>
       </c>
       <c r="C61" t="n">
-        <v>22.03290287592844</v>
+        <v>22.14040043143421</v>
       </c>
       <c r="D61" t="n">
-        <v>126.1476936973827</v>
+        <v>125.6938425510317</v>
       </c>
       <c r="E61" t="n">
-        <v>223.0511135695929</v>
+        <v>125.764</v>
       </c>
       <c r="F61" t="n">
-        <v>-1189853.876363216</v>
+        <v>224.112</v>
       </c>
       <c r="G61" t="n">
-        <v>243.4763946897488</v>
+        <v>223.5639717803658</v>
+      </c>
+      <c r="H61" t="n">
+        <v>202.795</v>
+      </c>
+      <c r="I61" t="n">
+        <v>202.5530707553397</v>
       </c>
     </row>
     <row r="62">
@@ -1858,19 +2228,25 @@
         <v>22.273</v>
       </c>
       <c r="C62" t="n">
-        <v>22.05888816555895</v>
+        <v>22.18823707195305</v>
       </c>
       <c r="D62" t="n">
-        <v>128.352290571418</v>
+        <v>127.9102759846691</v>
       </c>
       <c r="E62" t="n">
-        <v>223.4219463645153</v>
+        <v>127.99</v>
       </c>
       <c r="F62" t="n">
-        <v>-1212179.387615674</v>
+        <v>224.485</v>
       </c>
       <c r="G62" t="n">
-        <v>243.139005887517</v>
+        <v>223.9364892438642</v>
+      </c>
+      <c r="H62" t="n">
+        <v>203.154</v>
+      </c>
+      <c r="I62" t="n">
+        <v>202.9234429314557</v>
       </c>
     </row>
     <row r="63">
@@ -1881,19 +2257,25 @@
         <v>22.356</v>
       </c>
       <c r="C63" t="n">
-        <v>22.11069786261257</v>
+        <v>22.28316931768767</v>
       </c>
       <c r="D63" t="n">
-        <v>132.7692672748449</v>
+        <v>132.3574362907379</v>
       </c>
       <c r="E63" t="n">
-        <v>224.1467251623432</v>
+        <v>132.452</v>
       </c>
       <c r="F63" t="n">
-        <v>-1256940.428731683</v>
+        <v>225.217</v>
       </c>
       <c r="G63" t="n">
-        <v>242.5146224942594</v>
+        <v>224.6655887298368</v>
+      </c>
+      <c r="H63" t="n">
+        <v>203.854</v>
+      </c>
+      <c r="I63" t="n">
+        <v>203.6482266063909</v>
       </c>
     </row>
     <row r="64">
@@ -1904,19 +2286,25 @@
         <v>22.436</v>
       </c>
       <c r="C64" t="n">
-        <v>22.16224485824022</v>
+        <v>22.37663359595985</v>
       </c>
       <c r="D64" t="n">
-        <v>137.1965810813048</v>
+        <v>136.8234458470586</v>
       </c>
       <c r="E64" t="n">
-        <v>224.8501729279626</v>
+        <v>136.932</v>
       </c>
       <c r="F64" t="n">
-        <v>-1301844.525657656</v>
+        <v>225.928</v>
       </c>
       <c r="G64" t="n">
-        <v>241.9516139182147</v>
+        <v>225.3745308285324</v>
+      </c>
+      <c r="H64" t="n">
+        <v>204.533</v>
+      </c>
+      <c r="I64" t="n">
+        <v>204.3528251675085</v>
       </c>
     </row>
     <row r="65">
@@ -1927,19 +2315,25 @@
         <v>22.51</v>
       </c>
       <c r="C65" t="n">
-        <v>22.21347142572414</v>
+        <v>22.4680540752177</v>
       </c>
       <c r="D65" t="n">
-        <v>141.634173675672</v>
+        <v>141.3079534756988</v>
       </c>
       <c r="E65" t="n">
-        <v>225.5335949682841</v>
+        <v>141.426</v>
       </c>
       <c r="F65" t="n">
-        <v>-1346887.553115003</v>
+        <v>226.62</v>
       </c>
       <c r="G65" t="n">
-        <v>241.4437755971709</v>
+        <v>226.0645023040858</v>
+      </c>
+      <c r="H65" t="n">
+        <v>205.192</v>
+      </c>
+      <c r="I65" t="n">
+        <v>205.0384332736244</v>
       </c>
     </row>
     <row r="66">
@@ -1950,19 +2344,25 @@
         <v>22.581</v>
       </c>
       <c r="C66" t="n">
-        <v>22.26431993808048</v>
+        <v>22.55685499420032</v>
       </c>
       <c r="D66" t="n">
-        <v>146.0819752077467</v>
+        <v>145.8104928396648</v>
       </c>
       <c r="E66" t="n">
-        <v>226.1981779378024</v>
+        <v>145.936</v>
       </c>
       <c r="F66" t="n">
-        <v>-1392065.63476931</v>
+        <v>227.293</v>
       </c>
       <c r="G66" t="n">
-        <v>240.9856695285444</v>
+        <v>226.7365664168748</v>
+      </c>
+      <c r="H66" t="n">
+        <v>205.832</v>
+      </c>
+      <c r="I66" t="n">
+        <v>205.7061228614622</v>
       </c>
     </row>
     <row r="67">
@@ -1973,19 +2373,25 @@
         <v>22.646</v>
       </c>
       <c r="C67" t="n">
-        <v>22.31473285121144</v>
+        <v>22.64246065006369</v>
       </c>
       <c r="D67" t="n">
-        <v>150.5399043104565</v>
+        <v>150.3304824557296</v>
       </c>
       <c r="E67" t="n">
-        <v>226.8450036031413</v>
+        <v>150.458</v>
       </c>
       <c r="F67" t="n">
-        <v>-1437375.120911532</v>
+        <v>227.948</v>
       </c>
       <c r="G67" t="n">
-        <v>240.5725115724603</v>
+        <v>227.3916772499892</v>
+      </c>
+      <c r="H67" t="n">
+        <v>206.454</v>
+      </c>
+      <c r="I67" t="n">
+        <v>206.3568573602709</v>
       </c>
     </row>
     <row r="68">
@@ -1996,19 +2402,25 @@
         <v>22.707</v>
       </c>
       <c r="C68" t="n">
-        <v>22.36465269028669</v>
+        <v>22.72429538878247</v>
       </c>
       <c r="D68" t="n">
-        <v>155.0078681150247</v>
+        <v>154.8672257051232</v>
       </c>
       <c r="E68" t="n">
-        <v>227.4750606676733</v>
+        <v>154.994</v>
       </c>
       <c r="F68" t="n">
-        <v>-1482812.568692223</v>
+        <v>228.587</v>
       </c>
       <c r="G68" t="n">
-        <v>240.2000778922372</v>
+        <v>228.0306920167226</v>
+      </c>
+      <c r="H68" t="n">
+        <v>207.06</v>
+      </c>
+      <c r="I68" t="n">
+        <v>206.9915039061368</v>
       </c>
     </row>
     <row r="69">
@@ -2019,19 +2431,25 @@
         <v>22.763</v>
       </c>
       <c r="C69" t="n">
-        <v>22.41402203866553</v>
+        <v>22.8017835973425</v>
       </c>
       <c r="D69" t="n">
-        <v>159.4857622636779</v>
+        <v>159.4199108424887</v>
       </c>
       <c r="E69" t="n">
-        <v>228.0892549753374</v>
+        <v>159.541</v>
       </c>
       <c r="F69" t="n">
-        <v>-1528374.724553819</v>
+        <v>229.218</v>
       </c>
       <c r="G69" t="n">
-        <v>239.8646268637237</v>
+        <v>228.6543816811872</v>
+      </c>
+      <c r="H69" t="n">
+        <v>207.65</v>
+      </c>
+      <c r="I69" t="n">
+        <v>207.6108438845532</v>
       </c>
     </row>
     <row r="70">
@@ -2042,19 +2460,25 @@
         <v>22.814</v>
       </c>
       <c r="C70" t="n">
-        <v>22.46278352883228</v>
+        <v>22.87434969735224</v>
       </c>
       <c r="D70" t="n">
-        <v>163.973470920348</v>
+        <v>163.9876110034251</v>
       </c>
       <c r="E70" t="n">
-        <v>228.6884183531595</v>
+        <v>164.099</v>
       </c>
       <c r="F70" t="n">
-        <v>-1574058.508563664</v>
+        <v>229.818</v>
       </c>
       <c r="G70" t="n">
-        <v>239.5628335648347</v>
+        <v>229.2634401621176</v>
+      </c>
+      <c r="H70" t="n">
+        <v>208.226</v>
+      </c>
+      <c r="I70" t="n">
+        <v>208.2155820685194</v>
       </c>
     </row>
     <row r="71">
@@ -2065,19 +2489,25 @@
         <v>22.861</v>
       </c>
       <c r="C71" t="n">
-        <v>22.51087983493727</v>
+        <v>22.94141813978574</v>
       </c>
       <c r="D71" t="n">
-        <v>168.4708667797273</v>
+        <v>168.5692842108691</v>
       </c>
       <c r="E71" t="n">
-        <v>229.2733163047653</v>
+        <v>168.666</v>
       </c>
       <c r="F71" t="n">
-        <v>-1619861.000397442</v>
+        <v>230.411</v>
       </c>
       <c r="G71" t="n">
-        <v>239.2917345552131</v>
+        <v>229.8584923407919</v>
+      </c>
+      <c r="H71" t="n">
+        <v>208.787</v>
+      </c>
+      <c r="I71" t="n">
+        <v>208.8063545708819</v>
       </c>
     </row>
     <row r="72">
@@ -2088,19 +2518,25 @@
         <v>22.904</v>
       </c>
       <c r="C72" t="n">
-        <v>22.55825366662647</v>
+        <v>23.00241340063382</v>
       </c>
       <c r="D72" t="n">
-        <v>172.9778110749657</v>
+        <v>173.1637733805196</v>
       </c>
       <c r="E72" t="n">
-        <v>229.8446547295243</v>
+        <v>173.243</v>
       </c>
       <c r="F72" t="n">
-        <v>-1665779.426761229</v>
+        <v>230.99</v>
       </c>
       <c r="G72" t="n">
-        <v>239.0486811187693</v>
+        <v>230.4401010548234</v>
+      </c>
+      <c r="H72" t="n">
+        <v>209.335</v>
+      </c>
+      <c r="I72" t="n">
+        <v>209.3837357908943</v>
       </c>
     </row>
     <row r="73">
@@ -2111,19 +2547,25 @@
         <v>22.943</v>
       </c>
       <c r="C73" t="n">
-        <v>22.60484776391148</v>
+        <v>23.05675997728857</v>
       </c>
       <c r="D73" t="n">
-        <v>177.4941535842408</v>
+        <v>177.7698063254691</v>
       </c>
       <c r="E73" t="n">
-        <v>230.4030858117615</v>
+        <v>177.827</v>
       </c>
       <c r="F73" t="n">
-        <v>-1711811.150072203</v>
+        <v>231.556</v>
       </c>
       <c r="G73" t="n">
-        <v>238.8312995022706</v>
+        <v>231.0087732281419</v>
+      </c>
+      <c r="H73" t="n">
+        <v>209.87</v>
+      </c>
+      <c r="I73" t="n">
+        <v>209.9482445038892</v>
       </c>
     </row>
     <row r="74">
@@ -2131,22 +2573,28 @@
         <v>8400</v>
       </c>
       <c r="B74" t="n">
-        <v>22.978</v>
+        <v>22.972</v>
       </c>
       <c r="C74" t="n">
-        <v>22.65060489288408</v>
+        <v>23.10388238552301</v>
       </c>
       <c r="D74" t="n">
-        <v>182.0197326363903</v>
+        <v>182.385995760172</v>
       </c>
       <c r="E74" t="n">
-        <v>230.9492132000917</v>
+        <v>182.419</v>
       </c>
       <c r="F74" t="n">
-        <v>-1757953.65824438</v>
+        <v>232.11</v>
       </c>
       <c r="G74" t="n">
-        <v>238.6374569656837</v>
+        <v>231.5649652621148</v>
+      </c>
+      <c r="H74" t="n">
+        <v>210.393</v>
+      </c>
+      <c r="I74" t="n">
+        <v>210.5003492178556</v>
       </c>
     </row>
     <row r="75">
@@ -2157,19 +2605,25 @@
         <v>23.009</v>
       </c>
       <c r="C75" t="n">
-        <v>22.69546784212019</v>
+        <v>23.14320515695665</v>
       </c>
       <c r="D75" t="n">
-        <v>186.5543751157577</v>
+        <v>187.0108393038611</v>
       </c>
       <c r="E75" t="n">
-        <v>231.4835965771491</v>
+        <v>187.018</v>
       </c>
       <c r="F75" t="n">
-        <v>-1804204.555447725</v>
+        <v>232.651</v>
       </c>
       <c r="G75" t="n">
-        <v>238.4652326828615</v>
+        <v>232.1090877921662</v>
+      </c>
+      <c r="H75" t="n">
+        <v>210.904</v>
+      </c>
+      <c r="I75" t="n">
+        <v>211.0404729003418</v>
       </c>
     </row>
     <row r="76">
@@ -2180,19 +2634,25 @@
         <v>23.036</v>
       </c>
       <c r="C76" t="n">
-        <v>22.73937941964923</v>
+        <v>23.17415283691952</v>
       </c>
       <c r="D76" t="n">
-        <v>191.0978964663778</v>
+        <v>191.6427194834968</v>
       </c>
       <c r="E76" t="n">
-        <v>232.0067557038374</v>
+        <v>191.623</v>
       </c>
       <c r="F76" t="n">
-        <v>-1850561.553727391</v>
+        <v>233.18</v>
       </c>
       <c r="G76" t="n">
-        <v>238.3128927080596</v>
+        <v>232.6415098974515</v>
+      </c>
+      <c r="H76" t="n">
+        <v>211.405</v>
+      </c>
+      <c r="I76" t="n">
+        <v>211.5689971624705</v>
       </c>
     </row>
     <row r="77">
@@ -2203,19 +2663,25 @@
         <v>23.061</v>
       </c>
       <c r="C77" t="n">
-        <v>22.78228245038959</v>
+        <v>23.19614998264479</v>
       </c>
       <c r="D77" t="n">
-        <v>195.650100695604</v>
+        <v>196.2799037363235</v>
       </c>
       <c r="E77" t="n">
-        <v>232.5191740089845</v>
+        <v>196.232</v>
       </c>
       <c r="F77" t="n">
-        <v>-1897022.465385257</v>
+        <v>233.698</v>
       </c>
       <c r="G77" t="n">
-        <v>238.1788683649513</v>
+        <v>233.1625628373637</v>
+      </c>
+      <c r="H77" t="n">
+        <v>211.894</v>
+      </c>
+      <c r="I77" t="n">
+        <v>212.0862659732116</v>
       </c>
     </row>
     <row r="78">
@@ -2226,19 +2692,25 @@
         <v>23.082</v>
       </c>
       <c r="C78" t="n">
-        <v>22.8241197739701</v>
+        <v>23.20862116173328</v>
       </c>
       <c r="D78" t="n">
-        <v>200.2107803772619</v>
+        <v>200.9205444120923</v>
       </c>
       <c r="E78" t="n">
-        <v>233.0213017843777</v>
+        <v>200.847</v>
       </c>
       <c r="F78" t="n">
-        <v>-1943585.196039013</v>
+        <v>234.205</v>
       </c>
       <c r="G78" t="n">
-        <v>238.0617375281126</v>
+        <v>233.6725433772925</v>
+      </c>
+      <c r="H78" t="n">
+        <v>212.374</v>
+      </c>
+      <c r="I78" t="n">
+        <v>212.5925889658119</v>
       </c>
     </row>
     <row r="79">
@@ -2249,19 +2721,25 @@
         <v>23.1</v>
       </c>
       <c r="C79" t="n">
-        <v>22.8648342428723</v>
+        <v>23.21099095084425</v>
       </c>
       <c r="D79" t="n">
-        <v>204.7797166544015</v>
+        <v>205.5626787750007</v>
       </c>
       <c r="E79" t="n">
-        <v>233.5135590361184</v>
+        <v>205.465</v>
       </c>
       <c r="F79" t="n">
-        <v>-1990247.738285112</v>
+        <v>234.702</v>
       </c>
       <c r="G79" t="n">
-        <v>237.9602083583465</v>
+        <v>234.1717167566575</v>
+      </c>
+      <c r="H79" t="n">
+        <v>212.844</v>
+      </c>
+      <c r="I79" t="n">
+        <v>213.0882443889687</v>
       </c>
     </row>
     <row r="80">
@@ -2272,19 +2750,25 @@
         <v>23.115</v>
       </c>
       <c r="C80" t="n">
-        <v>22.90436872084089</v>
+        <v>23.20268393457505</v>
       </c>
       <c r="D80" t="n">
-        <v>209.3566792417038</v>
+        <v>210.2042290053891</v>
       </c>
       <c r="E80" t="n">
-        <v>233.9963380357288</v>
+        <v>210.086</v>
       </c>
       <c r="F80" t="n">
-        <v>-2037008.165901293</v>
+        <v>235.188</v>
       </c>
       <c r="G80" t="n">
-        <v>237.873105127297</v>
+        <v>234.6603193444178</v>
+      </c>
+      <c r="H80" t="n">
+        <v>213.304</v>
+      </c>
+      <c r="I80" t="n">
+        <v>213.5734817475902</v>
       </c>
     </row>
     <row r="81">
@@ -2295,19 +2779,25 @@
         <v>23.127</v>
       </c>
       <c r="C81" t="n">
-        <v>22.94266608151884</v>
+        <v>23.18312470449919</v>
       </c>
       <c r="D81" t="n">
-        <v>213.9414264275946</v>
+        <v>214.84300220123</v>
       </c>
       <c r="E81" t="n">
-        <v>234.4700056081678</v>
+        <v>214.711</v>
       </c>
       <c r="F81" t="n">
-        <v>-2083864.628532449</v>
+        <v>235.665</v>
       </c>
       <c r="G81" t="n">
-        <v>237.7993558271451</v>
+        <v>235.1385610207345</v>
+      </c>
+      <c r="H81" t="n">
+        <v>213.756</v>
+      </c>
+      <c r="I81" t="n">
+        <v>214.0485241715177</v>
       </c>
     </row>
     <row r="82">
@@ -2318,19 +2808,25 @@
         <v>23.137</v>
       </c>
       <c r="C82" t="n">
-        <v>22.9796692072716</v>
+        <v>23.15173785833765</v>
       </c>
       <c r="D82" t="n">
-        <v>218.5337050761028</v>
+        <v>219.4766903794377</v>
       </c>
       <c r="E82" t="n">
-        <v>234.9349051886588</v>
+        <v>219.337</v>
       </c>
       <c r="F82" t="n">
-        <v>-2130815.346810486</v>
+        <v>236.132</v>
       </c>
       <c r="G82" t="n">
-        <v>237.737981310541</v>
+        <v>235.606627317992</v>
+      </c>
+      <c r="H82" t="n">
+        <v>214.198</v>
+      </c>
+      <c r="I82" t="n">
+        <v>214.5135705451596</v>
       </c>
     </row>
     <row r="83">
@@ -2341,19 +2837,25 @@
         <v>23.153</v>
       </c>
       <c r="C83" t="n">
-        <v>23.06613997656126</v>
+        <v>23.01774889245197</v>
       </c>
       <c r="D83" t="n">
-        <v>230.0455875728806</v>
+        <v>231.0224793202576</v>
       </c>
       <c r="E83" t="n">
-        <v>236.0608581274697</v>
+        <v>230.91</v>
       </c>
       <c r="F83" t="n">
-        <v>-2248593.422765552</v>
+        <v>237.261</v>
       </c>
       <c r="G83" t="n">
-        <v>237.6329883026646</v>
+        <v>236.7332957163755</v>
+      </c>
+      <c r="H83" t="n">
+        <v>215.27</v>
+      </c>
+      <c r="I83" t="n">
+        <v>215.6335621295806</v>
       </c>
     </row>
     <row r="84">
@@ -2364,433 +2866,25 @@
         <v>23.156</v>
       </c>
       <c r="C84" t="n">
-        <v>23.14327268818851</v>
+        <v>22.79725065410773</v>
       </c>
       <c r="D84" t="n">
-        <v>241.5984109828299</v>
+        <v>242.4800210590328</v>
       </c>
       <c r="E84" t="n">
-        <v>237.1384852556628</v>
+        <v>242.488</v>
       </c>
       <c r="F84" t="n">
-        <v>-2366924.926829461</v>
+        <v>238.339</v>
       </c>
       <c r="G84" t="n">
-        <v>237.5878480380435</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>11500</v>
-      </c>
-      <c r="B85" t="n">
-        <v>23.148</v>
-      </c>
-      <c r="C85" t="n">
-        <v>23.21017537273755</v>
-      </c>
-      <c r="D85" t="n">
-        <v>253.1872832666656</v>
-      </c>
-      <c r="E85" t="n">
-        <v>238.1716608506385</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-2485786.816515677</v>
-      </c>
-      <c r="G85" t="n">
-        <v>237.5927503680356</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B86" t="n">
-        <v>23.133</v>
-      </c>
-      <c r="C86" t="n">
-        <v>23.26595621307797</v>
-      </c>
-      <c r="D86" t="n">
-        <v>264.806866439598</v>
-      </c>
-      <c r="E86" t="n">
-        <v>239.1637262795492</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-2605157.848914992</v>
-      </c>
-      <c r="G86" t="n">
-        <v>237.6396701707127</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>12500</v>
-      </c>
-      <c r="B87" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="C87" t="n">
-        <v>23.30972350856949</v>
-      </c>
-      <c r="D87" t="n">
-        <v>276.4513766380628</v>
-      </c>
-      <c r="E87" t="n">
-        <v>240.1175770756419</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-2725018.336807461</v>
-      </c>
-      <c r="G87" t="n">
-        <v>237.7219908344658</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>13000</v>
-      </c>
-      <c r="B88" t="n">
-        <v>23.082</v>
-      </c>
-      <c r="C88" t="n">
-        <v>23.34058564871161</v>
-      </c>
-      <c r="D88" t="n">
-        <v>288.1145841710521</v>
-      </c>
-      <c r="E88" t="n">
-        <v>241.0357329249749</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-2845349.943853622</v>
-      </c>
-      <c r="G88" t="n">
-        <v>237.8342176361116</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>13500</v>
-      </c>
-      <c r="B89" t="n">
-        <v>23.049</v>
-      </c>
-      <c r="C89" t="n">
-        <v>23.35765109349379</v>
-      </c>
-      <c r="D89" t="n">
-        <v>299.7898135600385</v>
-      </c>
-      <c r="E89" t="n">
-        <v>241.920394436814</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-2966135.511336951</v>
-      </c>
-      <c r="G89" t="n">
-        <v>237.9717571498808</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B90" t="n">
-        <v>23.013</v>
-      </c>
-      <c r="C90" t="n">
-        <v>23.36002835856742</v>
-      </c>
-      <c r="D90" t="n">
-        <v>311.4699435703459</v>
-      </c>
-      <c r="E90" t="n">
-        <v>242.7734895839878</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-3087358.910605484</v>
-      </c>
-      <c r="G90" t="n">
-        <v>238.1307457615652</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>14500</v>
-      </c>
-      <c r="B91" t="n">
-        <v>22.974</v>
-      </c>
-      <c r="C91" t="n">
-        <v>23.34682600393324</v>
-      </c>
-      <c r="D91" t="n">
-        <v>323.1474072360284</v>
-      </c>
-      <c r="E91" t="n">
-        <v>243.5967119898518</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-3209004.916616822</v>
-      </c>
-      <c r="G91" t="n">
-        <v>238.3079151179025</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B92" t="n">
-        <v>22.933</v>
-      </c>
-      <c r="C92" t="n">
-        <v>23.31715262522291</v>
-      </c>
-      <c r="D92" t="n">
-        <v>334.8141918797755</v>
-      </c>
-      <c r="E92" t="n">
-        <v>244.3915527215235</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-3331059.098943077</v>
-      </c>
-      <c r="G92" t="n">
-        <v>238.5004856500799</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>15500</v>
-      </c>
-      <c r="B93" t="n">
-        <v>22.891</v>
-      </c>
-      <c r="C93" t="n">
-        <v>23.27011684691662</v>
-      </c>
-      <c r="D93" t="n">
-        <v>346.4618391289641</v>
-      </c>
-      <c r="E93" t="n">
-        <v>245.159326867813</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-3453507.727322138</v>
-      </c>
-      <c r="G93" t="n">
-        <v>238.7060816440651</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>16000</v>
-      </c>
-      <c r="B94" t="n">
-        <v>22.847</v>
-      </c>
-      <c r="C94" t="n">
-        <v>23.20482731702046</v>
-      </c>
-      <c r="D94" t="n">
-        <v>358.0814449287015</v>
-      </c>
-      <c r="E94" t="n">
-        <v>245.9011958959404</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-3576337.689406345</v>
-      </c>
-      <c r="G94" t="n">
-        <v>238.9226629975885</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>16500</v>
-      </c>
-      <c r="B95" t="n">
-        <v>22.803</v>
-      </c>
-      <c r="C95" t="n">
-        <v>23.12039270285518</v>
-      </c>
-      <c r="D95" t="n">
-        <v>369.6636595524977</v>
-      </c>
-      <c r="E95" t="n">
-        <v>246.6181865668584</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-3699536.418800665</v>
-      </c>
-      <c r="G95" t="n">
-        <v>239.1484700085523</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>17000</v>
-      </c>
-      <c r="B96" t="n">
-        <v>22.759</v>
-      </c>
-      <c r="C96" t="n">
-        <v>23.01592168769902</v>
-      </c>
-      <c r="D96" t="n">
-        <v>381.198687611054</v>
-      </c>
-      <c r="E96" t="n">
-        <v>247.3112070259315</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-3823091.831829781</v>
-      </c>
-      <c r="G96" t="n">
-        <v>239.3819784201276</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>17500</v>
-      </c>
-      <c r="B97" t="n">
-        <v>22.715</v>
-      </c>
-      <c r="C97" t="n">
-        <v>22.89052296809194</v>
-      </c>
-      <c r="D97" t="n">
-        <v>392.6762880595462</v>
-      </c>
-      <c r="E97" t="n">
-        <v>247.9810605605008</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-3946992.271749218</v>
-      </c>
-      <c r="G97" t="n">
-        <v>239.6218625977804</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>18000</v>
-      </c>
-      <c r="B98" t="n">
-        <v>22.671</v>
-      </c>
-      <c r="C98" t="n">
-        <v>22.74330525165672</v>
-      </c>
-      <c r="D98" t="n">
-        <v>404.085774203694</v>
-      </c>
-      <c r="E98" t="n">
-        <v>248.6284574188801</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-4071226.459336149</v>
-      </c>
-      <c r="G98" t="n">
-        <v>239.8669651978859</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>18500</v>
-      </c>
-      <c r="B99" t="n">
-        <v>22.627</v>
-      </c>
-      <c r="C99" t="n">
-        <v>22.57337725532646</v>
-      </c>
-      <c r="D99" t="n">
-        <v>415.4160137048464</v>
-      </c>
-      <c r="E99" t="n">
-        <v>249.254025009618</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-4195783.448973087</v>
-      </c>
-      <c r="G99" t="n">
-        <v>240.1162720518585</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>19000</v>
-      </c>
-      <c r="B100" t="n">
-        <v>22.584</v>
-      </c>
-      <c r="C100" t="n">
-        <v>22.37984770389428</v>
-      </c>
-      <c r="D100" t="n">
-        <v>426.6554285842647</v>
-      </c>
-      <c r="E100" t="n">
-        <v>249.8583167403091</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-4320652.589481609</v>
-      </c>
-      <c r="G100" t="n">
-        <v>240.3688912659486</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>19500</v>
-      </c>
-      <c r="B101" t="n">
-        <v>22.541</v>
-      </c>
-      <c r="C101" t="n">
-        <v>22.16182532881986</v>
-      </c>
-      <c r="D101" t="n">
-        <v>437.7919952267468</v>
-      </c>
-      <c r="E101" t="n">
-        <v>250.4418197080727</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-4445823.489080672</v>
-      </c>
-      <c r="G101" t="n">
-        <v>240.6240357479716</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B102" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="C102" t="n">
-        <v>21.91841886724217</v>
-      </c>
-      <c r="D102" t="n">
-        <v>448.8132443837092</v>
-      </c>
-      <c r="E102" t="n">
-        <v>251.0049614162041</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-4571285.983940372</v>
-      </c>
-      <c r="G102" t="n">
-        <v>240.8810085347994</v>
+        <v>237.799345469363</v>
+      </c>
+      <c r="H84" t="n">
+        <v>216.294</v>
+      </c>
+      <c r="I84" t="n">
+        <v>216.6943523214574</v>
       </c>
     </row>
   </sheetData>
